--- a/docs/MaterilProfileAPIs.xlsx
+++ b/docs/MaterilProfileAPIs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="12750" windowHeight="6390" tabRatio="881"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="12750" windowHeight="6390" tabRatio="881" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="471">
   <si>
     <t>POST</t>
     <phoneticPr fontId="1"/>
@@ -937,10 +937,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Password</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -962,10 +958,6 @@
   </si>
   <si>
     <t>Last Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-32</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1998,6 +1990,38 @@
     "statusText": "Successfully Deleted!!"
   }
 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8~12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Country Code of Phone Number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3~5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6~32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3~32</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3723,12 +3747,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3737,6 +3755,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="47" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11656,8 +11680,8 @@
   </sheetPr>
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I5"/>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -11836,10 +11860,10 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="81"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="139"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="29" t="s">
         <v>89</v>
       </c>
@@ -11857,10 +11881,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="81"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="139"/>
+      <c r="D13" s="137"/>
       <c r="E13" s="29" t="s">
         <v>88</v>
       </c>
@@ -11878,10 +11902,10 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="81"/>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="139"/>
+      <c r="D14" s="137"/>
       <c r="E14" s="29" t="s">
         <v>85</v>
       </c>
@@ -11938,15 +11962,15 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="81"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="137"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="94" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>36</v>
@@ -11961,12 +11985,12 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="81"/>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="137"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="94" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>126</v>
@@ -11984,10 +12008,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="81"/>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="94" t="s">
         <v>124</v>
       </c>
@@ -12007,15 +12031,15 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="81"/>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="139" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="140"/>
+      <c r="E21" s="94" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>419</v>
-      </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="94" t="s">
-        <v>420</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>421</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>36</v>
@@ -12030,15 +12054,15 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="81"/>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="139" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="140"/>
+      <c r="E22" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>422</v>
-      </c>
-      <c r="D22" s="137"/>
-      <c r="E22" s="94" t="s">
-        <v>423</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>424</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>36</v>
@@ -12053,15 +12077,15 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="81"/>
-      <c r="C23" s="136" t="s">
-        <v>450</v>
-      </c>
-      <c r="D23" s="137"/>
+      <c r="C23" s="139" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="140"/>
       <c r="E23" s="94" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>36</v>
@@ -12078,10 +12102,10 @@
       <c r="B24" s="81"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
-      <c r="E24" s="140" t="s">
-        <v>316</v>
-      </c>
-      <c r="F24" s="140"/>
+      <c r="E24" s="138" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24" s="138"/>
       <c r="G24" s="98"/>
       <c r="H24" s="98"/>
       <c r="I24" s="99"/>
@@ -12089,10 +12113,10 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="81"/>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="139"/>
+      <c r="D25" s="137"/>
       <c r="E25" s="94" t="s">
         <v>113</v>
       </c>
@@ -12112,10 +12136,10 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="81"/>
-      <c r="C26" s="138" t="s">
+      <c r="C26" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="139"/>
+      <c r="D26" s="137"/>
       <c r="E26" s="94" t="s">
         <v>111</v>
       </c>
@@ -12135,10 +12159,10 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="81"/>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="139"/>
+      <c r="D27" s="137"/>
       <c r="E27" s="94" t="s">
         <v>117</v>
       </c>
@@ -12158,10 +12182,10 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="81"/>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="139"/>
+      <c r="D28" s="137"/>
       <c r="E28" s="94" t="s">
         <v>112</v>
       </c>
@@ -12184,11 +12208,11 @@
       <c r="C29" s="117"/>
       <c r="D29" s="118"/>
       <c r="E29" s="142" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F29" s="142"/>
       <c r="G29" s="119" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H29" s="119"/>
       <c r="I29" s="120"/>
@@ -12196,15 +12220,15 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="81"/>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="140"/>
+      <c r="E30" s="121" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>342</v>
-      </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="121" t="s">
-        <v>343</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>344</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>36</v>
@@ -12222,7 +12246,7 @@
       <c r="C31" s="127"/>
       <c r="D31" s="128"/>
       <c r="E31" s="141" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F31" s="141"/>
       <c r="G31" s="129"/>
@@ -12232,15 +12256,15 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="81"/>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="139" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" s="140"/>
+      <c r="E32" s="121" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>382</v>
-      </c>
-      <c r="D32" s="137"/>
-      <c r="E32" s="121" t="s">
-        <v>383</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>384</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>36</v>
@@ -12255,15 +12279,15 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="81"/>
-      <c r="C33" s="136" t="s">
-        <v>385</v>
-      </c>
-      <c r="D33" s="137"/>
+      <c r="C33" s="139" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" s="140"/>
       <c r="E33" s="121" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>36</v>
@@ -12423,7 +12447,7 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B3" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -12487,7 +12511,7 @@
     </row>
     <row r="4" spans="1:61" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12556,7 +12580,7 @@
       <c r="C6" s="165"/>
       <c r="D6" s="166"/>
       <c r="E6" s="170" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F6" s="171"/>
       <c r="G6" s="171"/>
@@ -12806,7 +12830,7 @@
     <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="176" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D10" s="176"/>
       <c r="E10" s="176"/>
@@ -13148,7 +13172,7 @@
     <row r="15" spans="1:61" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="315" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D15" s="316"/>
       <c r="E15" s="316"/>
@@ -13163,7 +13187,7 @@
       <c r="N15" s="316"/>
       <c r="O15" s="317"/>
       <c r="P15" s="318" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q15" s="316"/>
       <c r="R15" s="316"/>
@@ -13181,7 +13205,7 @@
       <c r="AB15" s="316"/>
       <c r="AC15" s="317"/>
       <c r="AD15" s="301" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AE15" s="330"/>
       <c r="AF15" s="330"/>
@@ -13222,7 +13246,7 @@
     <row r="16" spans="1:61" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="315" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D16" s="316"/>
       <c r="E16" s="316"/>
@@ -13237,7 +13261,7 @@
       <c r="N16" s="316"/>
       <c r="O16" s="317"/>
       <c r="P16" s="318" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Q16" s="316"/>
       <c r="R16" s="316"/>
@@ -13255,7 +13279,7 @@
       <c r="AB16" s="316"/>
       <c r="AC16" s="317"/>
       <c r="AD16" s="301" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AE16" s="330"/>
       <c r="AF16" s="330"/>
@@ -13296,7 +13320,7 @@
     <row r="17" spans="2:61" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="315" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D17" s="316"/>
       <c r="E17" s="316"/>
@@ -13311,7 +13335,7 @@
       <c r="N17" s="316"/>
       <c r="O17" s="317"/>
       <c r="P17" s="318" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q17" s="316"/>
       <c r="R17" s="316"/>
@@ -13329,7 +13353,7 @@
       <c r="AB17" s="316"/>
       <c r="AC17" s="317"/>
       <c r="AD17" s="301" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AE17" s="330"/>
       <c r="AF17" s="330"/>
@@ -14304,7 +14328,7 @@
     <row r="32" spans="2:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="C32" s="214" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D32" s="214"/>
       <c r="E32" s="214"/>
@@ -15308,7 +15332,7 @@
     </row>
     <row r="51" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B51" s="211" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C51" s="211"/>
       <c r="D51" s="211"/>
@@ -15450,7 +15474,7 @@
     </row>
     <row r="55" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B55" s="148" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C55" s="148"/>
       <c r="D55" s="148"/>
@@ -15486,7 +15510,7 @@
     </row>
     <row r="56" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B56" s="211" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C56" s="211"/>
       <c r="D56" s="211"/>
@@ -15628,7 +15652,7 @@
     </row>
     <row r="60" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B60" s="148" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C60" s="148"/>
       <c r="D60" s="148"/>
@@ -15664,7 +15688,7 @@
     </row>
     <row r="61" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B61" s="211" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C61" s="211"/>
       <c r="D61" s="211"/>
@@ -15806,7 +15830,7 @@
     </row>
     <row r="65" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B65" s="148" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C65" s="148"/>
       <c r="D65" s="148"/>
@@ -15842,7 +15866,7 @@
     </row>
     <row r="66" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B66" s="211" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C66" s="211"/>
       <c r="D66" s="211"/>
@@ -15984,7 +16008,7 @@
     </row>
     <row r="70" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B70" s="148" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C70" s="148"/>
       <c r="D70" s="148"/>
@@ -16020,7 +16044,7 @@
     </row>
     <row r="71" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B71" s="211" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C71" s="211"/>
       <c r="D71" s="211"/>
@@ -16198,7 +16222,7 @@
     </row>
     <row r="76" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B76" s="211" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C76" s="211"/>
       <c r="D76" s="211"/>
@@ -16340,7 +16364,7 @@
     </row>
     <row r="80" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B80" s="148" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C80" s="148"/>
       <c r="D80" s="148"/>
@@ -16719,7 +16743,7 @@
         <v>401</v>
       </c>
       <c r="M10" s="65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N10" s="66"/>
       <c r="O10" s="67"/>
@@ -16773,7 +16797,7 @@
         <v>203</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I12" s="72"/>
       <c r="J12" s="73"/>
@@ -21100,7 +21124,7 @@
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B75" s="211" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C75" s="211"/>
       <c r="D75" s="211"/>
@@ -21164,7 +21188,7 @@
       <c r="D77" s="212"/>
       <c r="E77" s="212"/>
       <c r="F77" s="213" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G77" s="213"/>
       <c r="H77" s="213"/>
@@ -21218,7 +21242,7 @@
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B79" s="148" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C79" s="148"/>
       <c r="D79" s="148"/>
@@ -21248,7 +21272,7 @@
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B80" s="211" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C80" s="211"/>
       <c r="D80" s="211"/>
@@ -21312,7 +21336,7 @@
       <c r="D82" s="212"/>
       <c r="E82" s="212"/>
       <c r="F82" s="213" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G82" s="213"/>
       <c r="H82" s="213"/>
@@ -21366,7 +21390,7 @@
     </row>
     <row r="84" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B84" s="148" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C84" s="148"/>
       <c r="D84" s="148"/>
@@ -21396,7 +21420,7 @@
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="211" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C85" s="211"/>
       <c r="D85" s="211"/>
@@ -21460,7 +21484,7 @@
       <c r="D87" s="212"/>
       <c r="E87" s="212"/>
       <c r="F87" s="213" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G87" s="213"/>
       <c r="H87" s="213"/>
@@ -21514,7 +21538,7 @@
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B89" s="148" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C89" s="148"/>
       <c r="D89" s="148"/>
@@ -21544,7 +21568,7 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B90" s="211" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C90" s="211"/>
       <c r="D90" s="211"/>
@@ -21692,7 +21716,7 @@
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B95" s="211" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C95" s="211"/>
       <c r="D95" s="211"/>
@@ -22000,10 +22024,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:CJ84"/>
+  <dimension ref="A1:CJ86"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:AZ17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17:AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -22379,7 +22403,7 @@
     <row r="10" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="176" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="176"/>
       <c r="E10" s="176"/>
@@ -22640,13 +22664,13 @@
       <c r="V14" s="221"/>
       <c r="W14" s="222"/>
       <c r="X14" s="223" t="s">
-        <v>216</v>
+        <v>469</v>
       </c>
       <c r="Y14" s="221"/>
       <c r="Z14" s="221"/>
       <c r="AA14" s="222"/>
       <c r="AB14" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC14" s="157"/>
       <c r="AD14" s="157"/>
@@ -22688,7 +22712,7 @@
       <c r="H15" s="221"/>
       <c r="I15" s="222"/>
       <c r="J15" s="223" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K15" s="221"/>
       <c r="L15" s="221"/>
@@ -22706,13 +22730,13 @@
       <c r="V15" s="221"/>
       <c r="W15" s="222"/>
       <c r="X15" s="223" t="s">
-        <v>216</v>
+        <v>469</v>
       </c>
       <c r="Y15" s="221"/>
       <c r="Z15" s="221"/>
       <c r="AA15" s="222"/>
       <c r="AB15" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC15" s="157"/>
       <c r="AD15" s="157"/>
@@ -22745,7 +22769,7 @@
     <row r="16" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="221"/>
       <c r="E16" s="221"/>
@@ -22754,7 +22778,7 @@
       <c r="H16" s="221"/>
       <c r="I16" s="222"/>
       <c r="J16" s="223" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K16" s="221"/>
       <c r="L16" s="221"/>
@@ -22772,13 +22796,13 @@
       <c r="V16" s="221"/>
       <c r="W16" s="222"/>
       <c r="X16" s="223" t="s">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="Y16" s="221"/>
       <c r="Z16" s="221"/>
       <c r="AA16" s="222"/>
       <c r="AB16" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC16" s="157"/>
       <c r="AD16" s="157"/>
@@ -22811,7 +22835,7 @@
     <row r="17" spans="2:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="225"/>
       <c r="E17" s="225"/>
@@ -22820,7 +22844,7 @@
       <c r="H17" s="225"/>
       <c r="I17" s="226"/>
       <c r="J17" s="227" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K17" s="225"/>
       <c r="L17" s="225"/>
@@ -22838,13 +22862,13 @@
       <c r="V17" s="225"/>
       <c r="W17" s="226"/>
       <c r="X17" s="223" t="s">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="Y17" s="221"/>
       <c r="Z17" s="221"/>
       <c r="AA17" s="222"/>
       <c r="AB17" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC17" s="157"/>
       <c r="AD17" s="157"/>
@@ -22874,424 +22898,430 @@
       <c r="AZ17" s="163"/>
       <c r="BA17" s="13"/>
     </row>
-    <row r="18" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="105"/>
-      <c r="AC18" s="105"/>
-      <c r="AD18" s="105"/>
-      <c r="AE18" s="105"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="105"/>
-      <c r="AI18" s="105"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="105"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="107"/>
-      <c r="AP18" s="108"/>
-      <c r="AQ18" s="108"/>
-      <c r="AR18" s="108"/>
-      <c r="AS18" s="108"/>
-      <c r="AT18" s="108"/>
-      <c r="AU18" s="108"/>
-      <c r="AV18" s="108"/>
-      <c r="AW18" s="108"/>
-      <c r="AX18" s="108"/>
-      <c r="AY18" s="108"/>
-      <c r="AZ18" s="108"/>
+      <c r="C18" s="224" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="227" t="s">
+        <v>467</v>
+      </c>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="225"/>
+      <c r="R18" s="225"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="227" t="s">
+        <v>167</v>
+      </c>
+      <c r="U18" s="225"/>
+      <c r="V18" s="225"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="223" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="157"/>
+      <c r="AI18" s="157"/>
+      <c r="AJ18" s="157"/>
+      <c r="AK18" s="157"/>
+      <c r="AL18" s="158"/>
+      <c r="AM18" s="159" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN18" s="160"/>
+      <c r="AO18" s="161"/>
+      <c r="AP18" s="162"/>
+      <c r="AQ18" s="162"/>
+      <c r="AR18" s="162"/>
+      <c r="AS18" s="162"/>
+      <c r="AT18" s="162"/>
+      <c r="AU18" s="162"/>
+      <c r="AV18" s="162"/>
+      <c r="AW18" s="162"/>
+      <c r="AX18" s="162"/>
+      <c r="AY18" s="162"/>
+      <c r="AZ18" s="163"/>
       <c r="BA18" s="13"/>
     </row>
-    <row r="19" spans="2:53" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="224" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="227" t="s">
+        <v>464</v>
+      </c>
+      <c r="K19" s="225"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="225"/>
+      <c r="P19" s="225"/>
+      <c r="Q19" s="225"/>
+      <c r="R19" s="225"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="227" t="s">
+        <v>167</v>
+      </c>
+      <c r="U19" s="225"/>
+      <c r="V19" s="225"/>
+      <c r="W19" s="226"/>
+      <c r="X19" s="223" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC19" s="157"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="157"/>
+      <c r="AI19" s="157"/>
+      <c r="AJ19" s="157"/>
+      <c r="AK19" s="157"/>
+      <c r="AL19" s="158"/>
+      <c r="AM19" s="159" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN19" s="160"/>
+      <c r="AO19" s="161"/>
+      <c r="AP19" s="162"/>
+      <c r="AQ19" s="162"/>
+      <c r="AR19" s="162"/>
+      <c r="AS19" s="162"/>
+      <c r="AT19" s="162"/>
+      <c r="AU19" s="162"/>
+      <c r="AV19" s="162"/>
+      <c r="AW19" s="162"/>
+      <c r="AX19" s="162"/>
+      <c r="AY19" s="162"/>
+      <c r="AZ19" s="163"/>
+      <c r="BA19" s="13"/>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="105"/>
+      <c r="AM20" s="106"/>
+      <c r="AN20" s="106"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="108"/>
+      <c r="AQ20" s="108"/>
+      <c r="AR20" s="108"/>
+      <c r="AS20" s="108"/>
+      <c r="AT20" s="108"/>
+      <c r="AU20" s="108"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="108"/>
+      <c r="AX20" s="108"/>
+      <c r="AY20" s="108"/>
+      <c r="AZ20" s="108"/>
+      <c r="BA20" s="13"/>
+    </row>
+    <row r="21" spans="2:53" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="105"/>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="105"/>
-      <c r="AH19" s="105"/>
-      <c r="AI19" s="105"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="105"/>
-      <c r="AM19" s="106"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="107"/>
-      <c r="AP19" s="108"/>
-      <c r="AQ19" s="108"/>
-      <c r="AR19" s="108"/>
-      <c r="AS19" s="108"/>
-      <c r="AT19" s="108"/>
-      <c r="AU19" s="108"/>
-      <c r="AV19" s="108"/>
-      <c r="AW19" s="108"/>
-      <c r="AX19" s="108"/>
-      <c r="AY19" s="108"/>
-      <c r="AZ19" s="108"/>
-      <c r="BA19" s="13"/>
-    </row>
-    <row r="20" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
-      <c r="C20" s="14" t="s">
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="105"/>
+      <c r="AM21" s="106"/>
+      <c r="AN21" s="106"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="108"/>
+      <c r="AQ21" s="108"/>
+      <c r="AR21" s="108"/>
+      <c r="AS21" s="108"/>
+      <c r="AT21" s="108"/>
+      <c r="AU21" s="108"/>
+      <c r="AV21" s="108"/>
+      <c r="AW21" s="108"/>
+      <c r="AX21" s="108"/>
+      <c r="AY21" s="108"/>
+      <c r="AZ21" s="108"/>
+      <c r="BA21" s="13"/>
+    </row>
+    <row r="22" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="12"/>
-    </row>
-    <row r="21" spans="2:53" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="12"/>
-    </row>
-    <row r="22" spans="2:53" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="177" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="12"/>
+    </row>
+    <row r="23" spans="2:53" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="12"/>
+    </row>
+    <row r="24" spans="2:53" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+      <c r="C24" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180" t="s">
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="181"/>
-      <c r="T22" s="182" t="s">
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="178"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="U22" s="178"/>
-      <c r="V22" s="178"/>
-      <c r="W22" s="181"/>
-      <c r="X22" s="182" t="s">
+      <c r="U24" s="178"/>
+      <c r="V24" s="178"/>
+      <c r="W24" s="181"/>
+      <c r="X24" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="Y22" s="178"/>
-      <c r="Z22" s="178"/>
-      <c r="AA22" s="181"/>
-      <c r="AB22" s="182" t="s">
+      <c r="Y24" s="178"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="181"/>
+      <c r="AB24" s="182" t="s">
         <v>155</v>
       </c>
-      <c r="AC22" s="178"/>
-      <c r="AD22" s="178"/>
-      <c r="AE22" s="178"/>
-      <c r="AF22" s="178"/>
-      <c r="AG22" s="178"/>
-      <c r="AH22" s="178"/>
-      <c r="AI22" s="178"/>
-      <c r="AJ22" s="178"/>
-      <c r="AK22" s="178"/>
-      <c r="AL22" s="181"/>
-      <c r="AM22" s="182" t="s">
+      <c r="AC24" s="178"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="178"/>
+      <c r="AF24" s="178"/>
+      <c r="AG24" s="178"/>
+      <c r="AH24" s="178"/>
+      <c r="AI24" s="178"/>
+      <c r="AJ24" s="178"/>
+      <c r="AK24" s="178"/>
+      <c r="AL24" s="181"/>
+      <c r="AM24" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="AN22" s="181"/>
-      <c r="AO22" s="182" t="s">
+      <c r="AN24" s="181"/>
+      <c r="AO24" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="AP22" s="178"/>
-      <c r="AQ22" s="178"/>
-      <c r="AR22" s="178"/>
-      <c r="AS22" s="178"/>
-      <c r="AT22" s="178"/>
-      <c r="AU22" s="178"/>
-      <c r="AV22" s="178"/>
-      <c r="AW22" s="178"/>
-      <c r="AX22" s="178"/>
-      <c r="AY22" s="178"/>
-      <c r="AZ22" s="183"/>
-      <c r="BA22" s="12"/>
-    </row>
-    <row r="23" spans="2:53" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="187" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="190" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="188"/>
-      <c r="S23" s="189"/>
-      <c r="T23" s="190" t="s">
-        <v>146</v>
-      </c>
-      <c r="U23" s="188"/>
-      <c r="V23" s="188"/>
-      <c r="W23" s="189"/>
-      <c r="X23" s="202"/>
-      <c r="Y23" s="203"/>
-      <c r="Z23" s="203"/>
-      <c r="AA23" s="204"/>
-      <c r="AB23" s="194"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="195"/>
-      <c r="AE23" s="195"/>
-      <c r="AF23" s="195"/>
-      <c r="AG23" s="195"/>
-      <c r="AH23" s="195"/>
-      <c r="AI23" s="195"/>
-      <c r="AJ23" s="195"/>
-      <c r="AK23" s="195"/>
-      <c r="AL23" s="196"/>
-      <c r="AM23" s="197"/>
-      <c r="AN23" s="198"/>
-      <c r="AO23" s="184"/>
-      <c r="AP23" s="185"/>
-      <c r="AQ23" s="185"/>
-      <c r="AR23" s="185"/>
-      <c r="AS23" s="185"/>
-      <c r="AT23" s="185"/>
-      <c r="AU23" s="185"/>
-      <c r="AV23" s="185"/>
-      <c r="AW23" s="185"/>
-      <c r="AX23" s="185"/>
-      <c r="AY23" s="185"/>
-      <c r="AZ23" s="186"/>
-      <c r="BA23" s="12"/>
-    </row>
-    <row r="24" spans="2:53" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="187" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
-      <c r="O24" s="188"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="188"/>
-      <c r="R24" s="188"/>
-      <c r="S24" s="189"/>
-      <c r="T24" s="190" t="s">
-        <v>167</v>
-      </c>
-      <c r="U24" s="188"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="189"/>
-      <c r="X24" s="191">
-        <v>10</v>
-      </c>
-      <c r="Y24" s="192"/>
-      <c r="Z24" s="192"/>
-      <c r="AA24" s="193"/>
-      <c r="AB24" s="194"/>
-      <c r="AC24" s="195"/>
-      <c r="AD24" s="195"/>
-      <c r="AE24" s="195"/>
-      <c r="AF24" s="195"/>
-      <c r="AG24" s="195"/>
-      <c r="AH24" s="195"/>
-      <c r="AI24" s="195"/>
-      <c r="AJ24" s="195"/>
-      <c r="AK24" s="195"/>
-      <c r="AL24" s="196"/>
-      <c r="AM24" s="197" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN24" s="198"/>
-      <c r="AO24" s="199" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP24" s="200"/>
-      <c r="AQ24" s="200"/>
-      <c r="AR24" s="200"/>
-      <c r="AS24" s="200"/>
-      <c r="AT24" s="200"/>
-      <c r="AU24" s="200"/>
-      <c r="AV24" s="200"/>
-      <c r="AW24" s="200"/>
-      <c r="AX24" s="200"/>
-      <c r="AY24" s="200"/>
-      <c r="AZ24" s="201"/>
+      <c r="AP24" s="178"/>
+      <c r="AQ24" s="178"/>
+      <c r="AR24" s="178"/>
+      <c r="AS24" s="178"/>
+      <c r="AT24" s="178"/>
+      <c r="AU24" s="178"/>
+      <c r="AV24" s="178"/>
+      <c r="AW24" s="178"/>
+      <c r="AX24" s="178"/>
+      <c r="AY24" s="178"/>
+      <c r="AZ24" s="183"/>
       <c r="BA24" s="12"/>
     </row>
-    <row r="25" spans="2:53" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:53" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="187" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D25" s="188"/>
       <c r="E25" s="188"/>
@@ -23300,7 +23330,7 @@
       <c r="H25" s="188"/>
       <c r="I25" s="189"/>
       <c r="J25" s="190" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="188"/>
       <c r="L25" s="188"/>
@@ -23312,17 +23342,15 @@
       <c r="R25" s="188"/>
       <c r="S25" s="189"/>
       <c r="T25" s="190" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="U25" s="188"/>
       <c r="V25" s="188"/>
       <c r="W25" s="189"/>
-      <c r="X25" s="191">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="192"/>
-      <c r="Z25" s="192"/>
-      <c r="AA25" s="193"/>
+      <c r="X25" s="202"/>
+      <c r="Y25" s="203"/>
+      <c r="Z25" s="203"/>
+      <c r="AA25" s="204"/>
       <c r="AB25" s="194"/>
       <c r="AC25" s="195"/>
       <c r="AD25" s="195"/>
@@ -23334,30 +23362,26 @@
       <c r="AJ25" s="195"/>
       <c r="AK25" s="195"/>
       <c r="AL25" s="196"/>
-      <c r="AM25" s="197" t="s">
-        <v>125</v>
-      </c>
+      <c r="AM25" s="197"/>
       <c r="AN25" s="198"/>
-      <c r="AO25" s="205" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP25" s="206"/>
-      <c r="AQ25" s="206"/>
-      <c r="AR25" s="206"/>
-      <c r="AS25" s="206"/>
-      <c r="AT25" s="206"/>
-      <c r="AU25" s="206"/>
-      <c r="AV25" s="206"/>
-      <c r="AW25" s="206"/>
-      <c r="AX25" s="206"/>
-      <c r="AY25" s="206"/>
-      <c r="AZ25" s="207"/>
+      <c r="AO25" s="184"/>
+      <c r="AP25" s="185"/>
+      <c r="AQ25" s="185"/>
+      <c r="AR25" s="185"/>
+      <c r="AS25" s="185"/>
+      <c r="AT25" s="185"/>
+      <c r="AU25" s="185"/>
+      <c r="AV25" s="185"/>
+      <c r="AW25" s="185"/>
+      <c r="AX25" s="185"/>
+      <c r="AY25" s="185"/>
+      <c r="AZ25" s="186"/>
       <c r="BA25" s="12"/>
     </row>
-    <row r="26" spans="2:53" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:53" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="187" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D26" s="188"/>
       <c r="E26" s="188"/>
@@ -23366,7 +23390,7 @@
       <c r="H26" s="188"/>
       <c r="I26" s="189"/>
       <c r="J26" s="190" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="K26" s="188"/>
       <c r="L26" s="188"/>
@@ -23383,7 +23407,9 @@
       <c r="U26" s="188"/>
       <c r="V26" s="188"/>
       <c r="W26" s="189"/>
-      <c r="X26" s="191"/>
+      <c r="X26" s="191">
+        <v>10</v>
+      </c>
       <c r="Y26" s="192"/>
       <c r="Z26" s="192"/>
       <c r="AA26" s="193"/>
@@ -23402,26 +23428,26 @@
         <v>125</v>
       </c>
       <c r="AN26" s="198"/>
-      <c r="AO26" s="184" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP26" s="185"/>
-      <c r="AQ26" s="185"/>
-      <c r="AR26" s="185"/>
-      <c r="AS26" s="185"/>
-      <c r="AT26" s="185"/>
-      <c r="AU26" s="185"/>
-      <c r="AV26" s="185"/>
-      <c r="AW26" s="185"/>
-      <c r="AX26" s="185"/>
-      <c r="AY26" s="185"/>
-      <c r="AZ26" s="186"/>
+      <c r="AO26" s="199" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP26" s="200"/>
+      <c r="AQ26" s="200"/>
+      <c r="AR26" s="200"/>
+      <c r="AS26" s="200"/>
+      <c r="AT26" s="200"/>
+      <c r="AU26" s="200"/>
+      <c r="AV26" s="200"/>
+      <c r="AW26" s="200"/>
+      <c r="AX26" s="200"/>
+      <c r="AY26" s="200"/>
+      <c r="AZ26" s="201"/>
       <c r="BA26" s="12"/>
     </row>
     <row r="27" spans="2:53" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="187" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="D27" s="188"/>
       <c r="E27" s="188"/>
@@ -23430,7 +23456,7 @@
       <c r="H27" s="188"/>
       <c r="I27" s="189"/>
       <c r="J27" s="190" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K27" s="188"/>
       <c r="L27" s="188"/>
@@ -23442,12 +23468,14 @@
       <c r="R27" s="188"/>
       <c r="S27" s="189"/>
       <c r="T27" s="190" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U27" s="188"/>
       <c r="V27" s="188"/>
       <c r="W27" s="189"/>
-      <c r="X27" s="191"/>
+      <c r="X27" s="191">
+        <v>3</v>
+      </c>
       <c r="Y27" s="192"/>
       <c r="Z27" s="192"/>
       <c r="AA27" s="193"/>
@@ -23463,131 +23491,151 @@
       <c r="AK27" s="195"/>
       <c r="AL27" s="196"/>
       <c r="AM27" s="197" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN27" s="198"/>
+      <c r="AO27" s="205" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP27" s="206"/>
+      <c r="AQ27" s="206"/>
+      <c r="AR27" s="206"/>
+      <c r="AS27" s="206"/>
+      <c r="AT27" s="206"/>
+      <c r="AU27" s="206"/>
+      <c r="AV27" s="206"/>
+      <c r="AW27" s="206"/>
+      <c r="AX27" s="206"/>
+      <c r="AY27" s="206"/>
+      <c r="AZ27" s="207"/>
+      <c r="BA27" s="12"/>
+    </row>
+    <row r="28" spans="2:53" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="187" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="190" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="189"/>
+      <c r="T28" s="190" t="s">
+        <v>167</v>
+      </c>
+      <c r="U28" s="188"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="189"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="195"/>
+      <c r="AD28" s="195"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="195"/>
+      <c r="AG28" s="195"/>
+      <c r="AH28" s="195"/>
+      <c r="AI28" s="195"/>
+      <c r="AJ28" s="195"/>
+      <c r="AK28" s="195"/>
+      <c r="AL28" s="196"/>
+      <c r="AM28" s="197" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN28" s="198"/>
+      <c r="AO28" s="184" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP28" s="185"/>
+      <c r="AQ28" s="185"/>
+      <c r="AR28" s="185"/>
+      <c r="AS28" s="185"/>
+      <c r="AT28" s="185"/>
+      <c r="AU28" s="185"/>
+      <c r="AV28" s="185"/>
+      <c r="AW28" s="185"/>
+      <c r="AX28" s="185"/>
+      <c r="AY28" s="185"/>
+      <c r="AZ28" s="186"/>
+      <c r="BA28" s="12"/>
+    </row>
+    <row r="29" spans="2:53" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="187" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="189"/>
+      <c r="T29" s="190" t="s">
+        <v>167</v>
+      </c>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="189"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="192"/>
+      <c r="Z29" s="192"/>
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="195"/>
+      <c r="AD29" s="195"/>
+      <c r="AE29" s="195"/>
+      <c r="AF29" s="195"/>
+      <c r="AG29" s="195"/>
+      <c r="AH29" s="195"/>
+      <c r="AI29" s="195"/>
+      <c r="AJ29" s="195"/>
+      <c r="AK29" s="195"/>
+      <c r="AL29" s="196"/>
+      <c r="AM29" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="AN27" s="198"/>
-      <c r="AO27" s="184" t="s">
+      <c r="AN29" s="198"/>
+      <c r="AO29" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="AP27" s="185"/>
-      <c r="AQ27" s="185"/>
-      <c r="AR27" s="185"/>
-      <c r="AS27" s="185"/>
-      <c r="AT27" s="185"/>
-      <c r="AU27" s="185"/>
-      <c r="AV27" s="185"/>
-      <c r="AW27" s="185"/>
-      <c r="AX27" s="185"/>
-      <c r="AY27" s="185"/>
-      <c r="AZ27" s="186"/>
-      <c r="BA27" s="12"/>
-    </row>
-    <row r="28" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="10"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="12"/>
-    </row>
-    <row r="29" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
-      <c r="AZ29" s="4"/>
+      <c r="AP29" s="185"/>
+      <c r="AQ29" s="185"/>
+      <c r="AR29" s="185"/>
+      <c r="AS29" s="185"/>
+      <c r="AT29" s="185"/>
+      <c r="AU29" s="185"/>
+      <c r="AV29" s="185"/>
+      <c r="AW29" s="185"/>
+      <c r="AX29" s="185"/>
+      <c r="AY29" s="185"/>
+      <c r="AZ29" s="186"/>
       <c r="BA29" s="12"/>
     </row>
     <row r="30" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23644,12 +23692,12 @@
       <c r="AZ30" s="4"/>
       <c r="BA30" s="12"/>
     </row>
-    <row r="31" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -23700,108 +23748,106 @@
     </row>
     <row r="32" spans="2:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
-      <c r="C32" s="214" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="214"/>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214"/>
-      <c r="U32" s="214"/>
-      <c r="V32" s="214"/>
-      <c r="W32" s="214"/>
-      <c r="X32" s="214"/>
-      <c r="Y32" s="214"/>
-      <c r="Z32" s="214"/>
-      <c r="AA32" s="214"/>
-      <c r="AB32" s="214"/>
-      <c r="AC32" s="214"/>
-      <c r="AD32" s="214"/>
-      <c r="AE32" s="214"/>
-      <c r="AF32" s="214"/>
-      <c r="AG32" s="214"/>
-      <c r="AH32" s="214"/>
-      <c r="AI32" s="214"/>
-      <c r="AJ32" s="214"/>
-      <c r="AK32" s="214"/>
-      <c r="AL32" s="214"/>
-      <c r="AM32" s="214"/>
-      <c r="AN32" s="214"/>
-      <c r="AO32" s="214"/>
-      <c r="AP32" s="214"/>
-      <c r="AQ32" s="214"/>
-      <c r="AR32" s="214"/>
-      <c r="AS32" s="214"/>
-      <c r="AT32" s="214"/>
-      <c r="AU32" s="214"/>
-      <c r="AV32" s="214"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
       <c r="BA32" s="12"/>
     </row>
-    <row r="33" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:88" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
-      <c r="C33" s="214"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="214"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="214"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="214"/>
-      <c r="N33" s="214"/>
-      <c r="O33" s="214"/>
-      <c r="P33" s="214"/>
-      <c r="Q33" s="214"/>
-      <c r="R33" s="214"/>
-      <c r="S33" s="214"/>
-      <c r="T33" s="214"/>
-      <c r="U33" s="214"/>
-      <c r="V33" s="214"/>
-      <c r="W33" s="214"/>
-      <c r="X33" s="214"/>
-      <c r="Y33" s="214"/>
-      <c r="Z33" s="214"/>
-      <c r="AA33" s="214"/>
-      <c r="AB33" s="214"/>
-      <c r="AC33" s="214"/>
-      <c r="AD33" s="214"/>
-      <c r="AE33" s="214"/>
-      <c r="AF33" s="214"/>
-      <c r="AG33" s="214"/>
-      <c r="AH33" s="214"/>
-      <c r="AI33" s="214"/>
-      <c r="AJ33" s="214"/>
-      <c r="AK33" s="214"/>
-      <c r="AL33" s="214"/>
-      <c r="AM33" s="214"/>
-      <c r="AN33" s="214"/>
-      <c r="AO33" s="214"/>
-      <c r="AP33" s="214"/>
-      <c r="AQ33" s="214"/>
-      <c r="AR33" s="214"/>
-      <c r="AS33" s="214"/>
-      <c r="AT33" s="214"/>
-      <c r="AU33" s="214"/>
-      <c r="AV33" s="214"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
@@ -23810,7 +23856,9 @@
     </row>
     <row r="34" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="214"/>
+      <c r="C34" s="214" t="s">
+        <v>224</v>
+      </c>
       <c r="D34" s="214"/>
       <c r="E34" s="214"/>
       <c r="F34" s="214"/>
@@ -24023,7 +24071,6 @@
       <c r="AY37" s="4"/>
       <c r="AZ37" s="4"/>
       <c r="BA37" s="12"/>
-      <c r="CJ37" s="101"/>
     </row>
     <row r="38" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
@@ -24073,12 +24120,11 @@
       <c r="AT38" s="214"/>
       <c r="AU38" s="214"/>
       <c r="AV38" s="214"/>
-      <c r="AW38" s="7"/>
-      <c r="AX38" s="7"/>
-      <c r="AY38" s="7"/>
-      <c r="AZ38" s="7"/>
-      <c r="BA38" s="13"/>
-      <c r="CJ38" s="101"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="12"/>
     </row>
     <row r="39" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
@@ -24128,11 +24174,12 @@
       <c r="AT39" s="214"/>
       <c r="AU39" s="214"/>
       <c r="AV39" s="214"/>
-      <c r="AW39" s="7"/>
-      <c r="AX39" s="7"/>
-      <c r="AY39" s="7"/>
-      <c r="AZ39" s="7"/>
-      <c r="BA39" s="13"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="12"/>
+      <c r="CJ39" s="101"/>
     </row>
     <row r="40" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
@@ -24187,6 +24234,7 @@
       <c r="AY40" s="7"/>
       <c r="AZ40" s="7"/>
       <c r="BA40" s="13"/>
+      <c r="CJ40" s="101"/>
     </row>
     <row r="41" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
@@ -24298,52 +24346,52 @@
     </row>
     <row r="43" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="7"/>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
-      <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
-      <c r="AO43" s="7"/>
-      <c r="AP43" s="7"/>
-      <c r="AQ43" s="7"/>
-      <c r="AR43" s="7"/>
-      <c r="AS43" s="7"/>
-      <c r="AT43" s="7"/>
-      <c r="AU43" s="7"/>
-      <c r="AV43" s="7"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="214"/>
+      <c r="F43" s="214"/>
+      <c r="G43" s="214"/>
+      <c r="H43" s="214"/>
+      <c r="I43" s="214"/>
+      <c r="J43" s="214"/>
+      <c r="K43" s="214"/>
+      <c r="L43" s="214"/>
+      <c r="M43" s="214"/>
+      <c r="N43" s="214"/>
+      <c r="O43" s="214"/>
+      <c r="P43" s="214"/>
+      <c r="Q43" s="214"/>
+      <c r="R43" s="214"/>
+      <c r="S43" s="214"/>
+      <c r="T43" s="214"/>
+      <c r="U43" s="214"/>
+      <c r="V43" s="214"/>
+      <c r="W43" s="214"/>
+      <c r="X43" s="214"/>
+      <c r="Y43" s="214"/>
+      <c r="Z43" s="214"/>
+      <c r="AA43" s="214"/>
+      <c r="AB43" s="214"/>
+      <c r="AC43" s="214"/>
+      <c r="AD43" s="214"/>
+      <c r="AE43" s="214"/>
+      <c r="AF43" s="214"/>
+      <c r="AG43" s="214"/>
+      <c r="AH43" s="214"/>
+      <c r="AI43" s="214"/>
+      <c r="AJ43" s="214"/>
+      <c r="AK43" s="214"/>
+      <c r="AL43" s="214"/>
+      <c r="AM43" s="214"/>
+      <c r="AN43" s="214"/>
+      <c r="AO43" s="214"/>
+      <c r="AP43" s="214"/>
+      <c r="AQ43" s="214"/>
+      <c r="AR43" s="214"/>
+      <c r="AS43" s="214"/>
+      <c r="AT43" s="214"/>
+      <c r="AU43" s="214"/>
+      <c r="AV43" s="214"/>
       <c r="AW43" s="7"/>
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
@@ -24352,52 +24400,52 @@
     </row>
     <row r="44" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
-      <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="7"/>
-      <c r="AV44" s="7"/>
+      <c r="C44" s="214"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="214"/>
+      <c r="J44" s="214"/>
+      <c r="K44" s="214"/>
+      <c r="L44" s="214"/>
+      <c r="M44" s="214"/>
+      <c r="N44" s="214"/>
+      <c r="O44" s="214"/>
+      <c r="P44" s="214"/>
+      <c r="Q44" s="214"/>
+      <c r="R44" s="214"/>
+      <c r="S44" s="214"/>
+      <c r="T44" s="214"/>
+      <c r="U44" s="214"/>
+      <c r="V44" s="214"/>
+      <c r="W44" s="214"/>
+      <c r="X44" s="214"/>
+      <c r="Y44" s="214"/>
+      <c r="Z44" s="214"/>
+      <c r="AA44" s="214"/>
+      <c r="AB44" s="214"/>
+      <c r="AC44" s="214"/>
+      <c r="AD44" s="214"/>
+      <c r="AE44" s="214"/>
+      <c r="AF44" s="214"/>
+      <c r="AG44" s="214"/>
+      <c r="AH44" s="214"/>
+      <c r="AI44" s="214"/>
+      <c r="AJ44" s="214"/>
+      <c r="AK44" s="214"/>
+      <c r="AL44" s="214"/>
+      <c r="AM44" s="214"/>
+      <c r="AN44" s="214"/>
+      <c r="AO44" s="214"/>
+      <c r="AP44" s="214"/>
+      <c r="AQ44" s="214"/>
+      <c r="AR44" s="214"/>
+      <c r="AS44" s="214"/>
+      <c r="AT44" s="214"/>
+      <c r="AU44" s="214"/>
+      <c r="AV44" s="214"/>
       <c r="AW44" s="7"/>
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
@@ -24405,1157 +24453,1279 @@
       <c r="BA44" s="13"/>
     </row>
     <row r="45" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
-      <c r="AI45" s="16"/>
-      <c r="AJ45" s="16"/>
-      <c r="AK45" s="16"/>
-      <c r="AL45" s="16"/>
-      <c r="AM45" s="16"/>
-      <c r="AN45" s="16"/>
-      <c r="AO45" s="16"/>
-      <c r="AP45" s="16"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="16"/>
-      <c r="AS45" s="16"/>
-      <c r="AT45" s="16"/>
-      <c r="AU45" s="16"/>
-      <c r="AV45" s="16"/>
-      <c r="AW45" s="16"/>
-      <c r="AX45" s="16"/>
-      <c r="AY45" s="16"/>
-      <c r="AZ45" s="16"/>
-      <c r="BA45" s="17"/>
-    </row>
-    <row r="46" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:88" x14ac:dyDescent="0.15">
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="75"/>
-      <c r="U47" s="75"/>
-      <c r="V47" s="75"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="75"/>
-      <c r="Z47" s="75"/>
-      <c r="AA47" s="75"/>
-    </row>
-    <row r="48" spans="2:88" x14ac:dyDescent="0.15">
-      <c r="B48" s="215" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7"/>
+      <c r="AZ45" s="7"/>
+      <c r="BA45" s="13"/>
+    </row>
+    <row r="46" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="10"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="13"/>
+    </row>
+    <row r="47" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="16"/>
+      <c r="AP47" s="16"/>
+      <c r="AQ47" s="16"/>
+      <c r="AR47" s="16"/>
+      <c r="AS47" s="16"/>
+      <c r="AT47" s="16"/>
+      <c r="AU47" s="16"/>
+      <c r="AV47" s="16"/>
+      <c r="AW47" s="16"/>
+      <c r="AX47" s="16"/>
+      <c r="AY47" s="16"/>
+      <c r="AZ47" s="16"/>
+      <c r="BA47" s="17"/>
+    </row>
+    <row r="48" spans="2:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="75"/>
+      <c r="W49" s="75"/>
+      <c r="X49" s="75"/>
+      <c r="Y49" s="75"/>
+      <c r="Z49" s="75"/>
+      <c r="AA49" s="75"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B50" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
-      <c r="L48" s="215"/>
-      <c r="M48" s="215"/>
-      <c r="N48" s="215"/>
-      <c r="O48" s="215"/>
-      <c r="P48" s="215"/>
-      <c r="Q48" s="215"/>
-      <c r="R48" s="215"/>
-      <c r="S48" s="215"/>
-      <c r="T48" s="215"/>
-      <c r="U48" s="215"/>
-      <c r="V48" s="215"/>
-      <c r="W48" s="215"/>
-      <c r="X48" s="215"/>
-      <c r="Y48" s="215"/>
-      <c r="Z48" s="215"/>
-      <c r="AA48" s="215"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B50" s="211" t="s">
+      <c r="C50" s="215"/>
+      <c r="D50" s="215"/>
+      <c r="E50" s="215"/>
+      <c r="F50" s="215"/>
+      <c r="G50" s="215"/>
+      <c r="H50" s="215"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="215"/>
+      <c r="L50" s="215"/>
+      <c r="M50" s="215"/>
+      <c r="N50" s="215"/>
+      <c r="O50" s="215"/>
+      <c r="P50" s="215"/>
+      <c r="Q50" s="215"/>
+      <c r="R50" s="215"/>
+      <c r="S50" s="215"/>
+      <c r="T50" s="215"/>
+      <c r="U50" s="215"/>
+      <c r="V50" s="215"/>
+      <c r="W50" s="215"/>
+      <c r="X50" s="215"/>
+      <c r="Y50" s="215"/>
+      <c r="Z50" s="215"/>
+      <c r="AA50" s="215"/>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B52" s="211" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="211"/>
+      <c r="D52" s="211"/>
+      <c r="E52" s="211"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="211"/>
+      <c r="H52" s="211"/>
+      <c r="I52" s="211"/>
+      <c r="J52" s="211"/>
+      <c r="K52" s="211"/>
+      <c r="L52" s="211"/>
+      <c r="M52" s="211"/>
+      <c r="N52" s="211"/>
+      <c r="O52" s="211"/>
+      <c r="P52" s="211"/>
+      <c r="Q52" s="211"/>
+      <c r="R52" s="211"/>
+      <c r="S52" s="211"/>
+      <c r="T52" s="211"/>
+      <c r="U52" s="211"/>
+      <c r="V52" s="211"/>
+      <c r="W52" s="211"/>
+      <c r="X52" s="211"/>
+      <c r="Y52" s="211"/>
+      <c r="Z52" s="211"/>
+      <c r="AA52" s="211"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B53" s="211"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="211"/>
+      <c r="E53" s="211"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="211"/>
+      <c r="H53" s="211"/>
+      <c r="I53" s="211"/>
+      <c r="J53" s="211"/>
+      <c r="K53" s="211"/>
+      <c r="L53" s="211"/>
+      <c r="M53" s="211"/>
+      <c r="N53" s="211"/>
+      <c r="O53" s="211"/>
+      <c r="P53" s="211"/>
+      <c r="Q53" s="211"/>
+      <c r="R53" s="211"/>
+      <c r="S53" s="211"/>
+      <c r="T53" s="211"/>
+      <c r="U53" s="211"/>
+      <c r="V53" s="211"/>
+      <c r="W53" s="211"/>
+      <c r="X53" s="211"/>
+      <c r="Y53" s="211"/>
+      <c r="Z53" s="211"/>
+      <c r="AA53" s="211"/>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B54" s="212">
+        <v>406</v>
+      </c>
+      <c r="C54" s="212"/>
+      <c r="D54" s="212"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="213"/>
+      <c r="H54" s="213"/>
+      <c r="I54" s="213"/>
+      <c r="J54" s="213"/>
+      <c r="K54" s="213"/>
+      <c r="L54" s="213"/>
+      <c r="M54" s="213"/>
+      <c r="N54" s="213"/>
+      <c r="O54" s="213"/>
+      <c r="P54" s="213"/>
+      <c r="Q54" s="213"/>
+      <c r="R54" s="213"/>
+      <c r="S54" s="213"/>
+      <c r="T54" s="213"/>
+      <c r="U54" s="213"/>
+      <c r="V54" s="213"/>
+      <c r="W54" s="213"/>
+      <c r="X54" s="213"/>
+      <c r="Y54" s="213"/>
+      <c r="Z54" s="213"/>
+      <c r="AA54" s="213"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B55" s="212"/>
+      <c r="C55" s="212"/>
+      <c r="D55" s="212"/>
+      <c r="E55" s="212"/>
+      <c r="F55" s="213"/>
+      <c r="G55" s="213"/>
+      <c r="H55" s="213"/>
+      <c r="I55" s="213"/>
+      <c r="J55" s="213"/>
+      <c r="K55" s="213"/>
+      <c r="L55" s="213"/>
+      <c r="M55" s="213"/>
+      <c r="N55" s="213"/>
+      <c r="O55" s="213"/>
+      <c r="P55" s="213"/>
+      <c r="Q55" s="213"/>
+      <c r="R55" s="213"/>
+      <c r="S55" s="213"/>
+      <c r="T55" s="213"/>
+      <c r="U55" s="213"/>
+      <c r="V55" s="213"/>
+      <c r="W55" s="213"/>
+      <c r="X55" s="213"/>
+      <c r="Y55" s="213"/>
+      <c r="Z55" s="213"/>
+      <c r="AA55" s="213"/>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B56" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="148"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
+      <c r="U56" s="148"/>
+      <c r="V56" s="148"/>
+      <c r="W56" s="148"/>
+      <c r="X56" s="148"/>
+      <c r="Y56" s="148"/>
+      <c r="Z56" s="148"/>
+      <c r="AA56" s="148"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B57" s="211" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="211"/>
+      <c r="D57" s="211"/>
+      <c r="E57" s="211"/>
+      <c r="F57" s="211"/>
+      <c r="G57" s="211"/>
+      <c r="H57" s="211"/>
+      <c r="I57" s="211"/>
+      <c r="J57" s="211"/>
+      <c r="K57" s="211"/>
+      <c r="L57" s="211"/>
+      <c r="M57" s="211"/>
+      <c r="N57" s="211"/>
+      <c r="O57" s="211"/>
+      <c r="P57" s="211"/>
+      <c r="Q57" s="211"/>
+      <c r="R57" s="211"/>
+      <c r="S57" s="211"/>
+      <c r="T57" s="211"/>
+      <c r="U57" s="211"/>
+      <c r="V57" s="211"/>
+      <c r="W57" s="211"/>
+      <c r="X57" s="211"/>
+      <c r="Y57" s="211"/>
+      <c r="Z57" s="211"/>
+      <c r="AA57" s="211"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B58" s="211"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="211"/>
+      <c r="E58" s="211"/>
+      <c r="F58" s="211"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="211"/>
+      <c r="I58" s="211"/>
+      <c r="J58" s="211"/>
+      <c r="K58" s="211"/>
+      <c r="L58" s="211"/>
+      <c r="M58" s="211"/>
+      <c r="N58" s="211"/>
+      <c r="O58" s="211"/>
+      <c r="P58" s="211"/>
+      <c r="Q58" s="211"/>
+      <c r="R58" s="211"/>
+      <c r="S58" s="211"/>
+      <c r="T58" s="211"/>
+      <c r="U58" s="211"/>
+      <c r="V58" s="211"/>
+      <c r="W58" s="211"/>
+      <c r="X58" s="211"/>
+      <c r="Y58" s="211"/>
+      <c r="Z58" s="211"/>
+      <c r="AA58" s="211"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B59" s="212">
+        <v>406</v>
+      </c>
+      <c r="C59" s="212"/>
+      <c r="D59" s="212"/>
+      <c r="E59" s="212"/>
+      <c r="F59" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="213"/>
+      <c r="H59" s="213"/>
+      <c r="I59" s="213"/>
+      <c r="J59" s="213"/>
+      <c r="K59" s="213"/>
+      <c r="L59" s="213"/>
+      <c r="M59" s="213"/>
+      <c r="N59" s="213"/>
+      <c r="O59" s="213"/>
+      <c r="P59" s="213"/>
+      <c r="Q59" s="213"/>
+      <c r="R59" s="213"/>
+      <c r="S59" s="213"/>
+      <c r="T59" s="213"/>
+      <c r="U59" s="213"/>
+      <c r="V59" s="213"/>
+      <c r="W59" s="213"/>
+      <c r="X59" s="213"/>
+      <c r="Y59" s="213"/>
+      <c r="Z59" s="213"/>
+      <c r="AA59" s="213"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B60" s="212"/>
+      <c r="C60" s="212"/>
+      <c r="D60" s="212"/>
+      <c r="E60" s="212"/>
+      <c r="F60" s="213"/>
+      <c r="G60" s="213"/>
+      <c r="H60" s="213"/>
+      <c r="I60" s="213"/>
+      <c r="J60" s="213"/>
+      <c r="K60" s="213"/>
+      <c r="L60" s="213"/>
+      <c r="M60" s="213"/>
+      <c r="N60" s="213"/>
+      <c r="O60" s="213"/>
+      <c r="P60" s="213"/>
+      <c r="Q60" s="213"/>
+      <c r="R60" s="213"/>
+      <c r="S60" s="213"/>
+      <c r="T60" s="213"/>
+      <c r="U60" s="213"/>
+      <c r="V60" s="213"/>
+      <c r="W60" s="213"/>
+      <c r="X60" s="213"/>
+      <c r="Y60" s="213"/>
+      <c r="Z60" s="213"/>
+      <c r="AA60" s="213"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B61" s="148" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="148"/>
+      <c r="N61" s="148"/>
+      <c r="O61" s="148"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="148"/>
+      <c r="R61" s="148"/>
+      <c r="S61" s="148"/>
+      <c r="T61" s="148"/>
+      <c r="U61" s="148"/>
+      <c r="V61" s="148"/>
+      <c r="W61" s="148"/>
+      <c r="X61" s="148"/>
+      <c r="Y61" s="148"/>
+      <c r="Z61" s="148"/>
+      <c r="AA61" s="148"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B62" s="211" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="211"/>
+      <c r="D62" s="211"/>
+      <c r="E62" s="211"/>
+      <c r="F62" s="211"/>
+      <c r="G62" s="211"/>
+      <c r="H62" s="211"/>
+      <c r="I62" s="211"/>
+      <c r="J62" s="211"/>
+      <c r="K62" s="211"/>
+      <c r="L62" s="211"/>
+      <c r="M62" s="211"/>
+      <c r="N62" s="211"/>
+      <c r="O62" s="211"/>
+      <c r="P62" s="211"/>
+      <c r="Q62" s="211"/>
+      <c r="R62" s="211"/>
+      <c r="S62" s="211"/>
+      <c r="T62" s="211"/>
+      <c r="U62" s="211"/>
+      <c r="V62" s="211"/>
+      <c r="W62" s="211"/>
+      <c r="X62" s="211"/>
+      <c r="Y62" s="211"/>
+      <c r="Z62" s="211"/>
+      <c r="AA62" s="211"/>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B63" s="211"/>
+      <c r="C63" s="211"/>
+      <c r="D63" s="211"/>
+      <c r="E63" s="211"/>
+      <c r="F63" s="211"/>
+      <c r="G63" s="211"/>
+      <c r="H63" s="211"/>
+      <c r="I63" s="211"/>
+      <c r="J63" s="211"/>
+      <c r="K63" s="211"/>
+      <c r="L63" s="211"/>
+      <c r="M63" s="211"/>
+      <c r="N63" s="211"/>
+      <c r="O63" s="211"/>
+      <c r="P63" s="211"/>
+      <c r="Q63" s="211"/>
+      <c r="R63" s="211"/>
+      <c r="S63" s="211"/>
+      <c r="T63" s="211"/>
+      <c r="U63" s="211"/>
+      <c r="V63" s="211"/>
+      <c r="W63" s="211"/>
+      <c r="X63" s="211"/>
+      <c r="Y63" s="211"/>
+      <c r="Z63" s="211"/>
+      <c r="AA63" s="211"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B64" s="212">
+        <v>406</v>
+      </c>
+      <c r="C64" s="212"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="212"/>
+      <c r="F64" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="213"/>
+      <c r="H64" s="213"/>
+      <c r="I64" s="213"/>
+      <c r="J64" s="213"/>
+      <c r="K64" s="213"/>
+      <c r="L64" s="213"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="213"/>
+      <c r="O64" s="213"/>
+      <c r="P64" s="213"/>
+      <c r="Q64" s="213"/>
+      <c r="R64" s="213"/>
+      <c r="S64" s="213"/>
+      <c r="T64" s="213"/>
+      <c r="U64" s="213"/>
+      <c r="V64" s="213"/>
+      <c r="W64" s="213"/>
+      <c r="X64" s="213"/>
+      <c r="Y64" s="213"/>
+      <c r="Z64" s="213"/>
+      <c r="AA64" s="213"/>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B65" s="212"/>
+      <c r="C65" s="212"/>
+      <c r="D65" s="212"/>
+      <c r="E65" s="212"/>
+      <c r="F65" s="213"/>
+      <c r="G65" s="213"/>
+      <c r="H65" s="213"/>
+      <c r="I65" s="213"/>
+      <c r="J65" s="213"/>
+      <c r="K65" s="213"/>
+      <c r="L65" s="213"/>
+      <c r="M65" s="213"/>
+      <c r="N65" s="213"/>
+      <c r="O65" s="213"/>
+      <c r="P65" s="213"/>
+      <c r="Q65" s="213"/>
+      <c r="R65" s="213"/>
+      <c r="S65" s="213"/>
+      <c r="T65" s="213"/>
+      <c r="U65" s="213"/>
+      <c r="V65" s="213"/>
+      <c r="W65" s="213"/>
+      <c r="X65" s="213"/>
+      <c r="Y65" s="213"/>
+      <c r="Z65" s="213"/>
+      <c r="AA65" s="213"/>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B66" s="148" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="148"/>
+      <c r="M66" s="148"/>
+      <c r="N66" s="148"/>
+      <c r="O66" s="148"/>
+      <c r="P66" s="148"/>
+      <c r="Q66" s="148"/>
+      <c r="R66" s="148"/>
+      <c r="S66" s="148"/>
+      <c r="T66" s="148"/>
+      <c r="U66" s="148"/>
+      <c r="V66" s="148"/>
+      <c r="W66" s="148"/>
+      <c r="X66" s="148"/>
+      <c r="Y66" s="148"/>
+      <c r="Z66" s="148"/>
+      <c r="AA66" s="148"/>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B67" s="211" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="211"/>
+      <c r="D67" s="211"/>
+      <c r="E67" s="211"/>
+      <c r="F67" s="211"/>
+      <c r="G67" s="211"/>
+      <c r="H67" s="211"/>
+      <c r="I67" s="211"/>
+      <c r="J67" s="211"/>
+      <c r="K67" s="211"/>
+      <c r="L67" s="211"/>
+      <c r="M67" s="211"/>
+      <c r="N67" s="211"/>
+      <c r="O67" s="211"/>
+      <c r="P67" s="211"/>
+      <c r="Q67" s="211"/>
+      <c r="R67" s="211"/>
+      <c r="S67" s="211"/>
+      <c r="T67" s="211"/>
+      <c r="U67" s="211"/>
+      <c r="V67" s="211"/>
+      <c r="W67" s="211"/>
+      <c r="X67" s="211"/>
+      <c r="Y67" s="211"/>
+      <c r="Z67" s="211"/>
+      <c r="AA67" s="211"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B68" s="211"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="211"/>
+      <c r="E68" s="211"/>
+      <c r="F68" s="211"/>
+      <c r="G68" s="211"/>
+      <c r="H68" s="211"/>
+      <c r="I68" s="211"/>
+      <c r="J68" s="211"/>
+      <c r="K68" s="211"/>
+      <c r="L68" s="211"/>
+      <c r="M68" s="211"/>
+      <c r="N68" s="211"/>
+      <c r="O68" s="211"/>
+      <c r="P68" s="211"/>
+      <c r="Q68" s="211"/>
+      <c r="R68" s="211"/>
+      <c r="S68" s="211"/>
+      <c r="T68" s="211"/>
+      <c r="U68" s="211"/>
+      <c r="V68" s="211"/>
+      <c r="W68" s="211"/>
+      <c r="X68" s="211"/>
+      <c r="Y68" s="211"/>
+      <c r="Z68" s="211"/>
+      <c r="AA68" s="211"/>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B69" s="212">
+        <v>406</v>
+      </c>
+      <c r="C69" s="212"/>
+      <c r="D69" s="212"/>
+      <c r="E69" s="212"/>
+      <c r="F69" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="213"/>
+      <c r="H69" s="213"/>
+      <c r="I69" s="213"/>
+      <c r="J69" s="213"/>
+      <c r="K69" s="213"/>
+      <c r="L69" s="213"/>
+      <c r="M69" s="213"/>
+      <c r="N69" s="213"/>
+      <c r="O69" s="213"/>
+      <c r="P69" s="213"/>
+      <c r="Q69" s="213"/>
+      <c r="R69" s="213"/>
+      <c r="S69" s="213"/>
+      <c r="T69" s="213"/>
+      <c r="U69" s="213"/>
+      <c r="V69" s="213"/>
+      <c r="W69" s="213"/>
+      <c r="X69" s="213"/>
+      <c r="Y69" s="213"/>
+      <c r="Z69" s="213"/>
+      <c r="AA69" s="213"/>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B70" s="212"/>
+      <c r="C70" s="212"/>
+      <c r="D70" s="212"/>
+      <c r="E70" s="212"/>
+      <c r="F70" s="213"/>
+      <c r="G70" s="213"/>
+      <c r="H70" s="213"/>
+      <c r="I70" s="213"/>
+      <c r="J70" s="213"/>
+      <c r="K70" s="213"/>
+      <c r="L70" s="213"/>
+      <c r="M70" s="213"/>
+      <c r="N70" s="213"/>
+      <c r="O70" s="213"/>
+      <c r="P70" s="213"/>
+      <c r="Q70" s="213"/>
+      <c r="R70" s="213"/>
+      <c r="S70" s="213"/>
+      <c r="T70" s="213"/>
+      <c r="U70" s="213"/>
+      <c r="V70" s="213"/>
+      <c r="W70" s="213"/>
+      <c r="X70" s="213"/>
+      <c r="Y70" s="213"/>
+      <c r="Z70" s="213"/>
+      <c r="AA70" s="213"/>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B71" s="148" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="148"/>
+      <c r="I71" s="148"/>
+      <c r="J71" s="148"/>
+      <c r="K71" s="148"/>
+      <c r="L71" s="148"/>
+      <c r="M71" s="148"/>
+      <c r="N71" s="148"/>
+      <c r="O71" s="148"/>
+      <c r="P71" s="148"/>
+      <c r="Q71" s="148"/>
+      <c r="R71" s="148"/>
+      <c r="S71" s="148"/>
+      <c r="T71" s="148"/>
+      <c r="U71" s="148"/>
+      <c r="V71" s="148"/>
+      <c r="W71" s="148"/>
+      <c r="X71" s="148"/>
+      <c r="Y71" s="148"/>
+      <c r="Z71" s="148"/>
+      <c r="AA71" s="148"/>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B72" s="211" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="211"/>
+      <c r="D72" s="211"/>
+      <c r="E72" s="211"/>
+      <c r="F72" s="211"/>
+      <c r="G72" s="211"/>
+      <c r="H72" s="211"/>
+      <c r="I72" s="211"/>
+      <c r="J72" s="211"/>
+      <c r="K72" s="211"/>
+      <c r="L72" s="211"/>
+      <c r="M72" s="211"/>
+      <c r="N72" s="211"/>
+      <c r="O72" s="211"/>
+      <c r="P72" s="211"/>
+      <c r="Q72" s="211"/>
+      <c r="R72" s="211"/>
+      <c r="S72" s="211"/>
+      <c r="T72" s="211"/>
+      <c r="U72" s="211"/>
+      <c r="V72" s="211"/>
+      <c r="W72" s="211"/>
+      <c r="X72" s="211"/>
+      <c r="Y72" s="211"/>
+      <c r="Z72" s="211"/>
+      <c r="AA72" s="211"/>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B73" s="211"/>
+      <c r="C73" s="211"/>
+      <c r="D73" s="211"/>
+      <c r="E73" s="211"/>
+      <c r="F73" s="211"/>
+      <c r="G73" s="211"/>
+      <c r="H73" s="211"/>
+      <c r="I73" s="211"/>
+      <c r="J73" s="211"/>
+      <c r="K73" s="211"/>
+      <c r="L73" s="211"/>
+      <c r="M73" s="211"/>
+      <c r="N73" s="211"/>
+      <c r="O73" s="211"/>
+      <c r="P73" s="211"/>
+      <c r="Q73" s="211"/>
+      <c r="R73" s="211"/>
+      <c r="S73" s="211"/>
+      <c r="T73" s="211"/>
+      <c r="U73" s="211"/>
+      <c r="V73" s="211"/>
+      <c r="W73" s="211"/>
+      <c r="X73" s="211"/>
+      <c r="Y73" s="211"/>
+      <c r="Z73" s="211"/>
+      <c r="AA73" s="211"/>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B74" s="228">
+        <v>409</v>
+      </c>
+      <c r="C74" s="228"/>
+      <c r="D74" s="228"/>
+      <c r="E74" s="228"/>
+      <c r="F74" s="229" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="211"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="211"/>
-      <c r="J50" s="211"/>
-      <c r="K50" s="211"/>
-      <c r="L50" s="211"/>
-      <c r="M50" s="211"/>
-      <c r="N50" s="211"/>
-      <c r="O50" s="211"/>
-      <c r="P50" s="211"/>
-      <c r="Q50" s="211"/>
-      <c r="R50" s="211"/>
-      <c r="S50" s="211"/>
-      <c r="T50" s="211"/>
-      <c r="U50" s="211"/>
-      <c r="V50" s="211"/>
-      <c r="W50" s="211"/>
-      <c r="X50" s="211"/>
-      <c r="Y50" s="211"/>
-      <c r="Z50" s="211"/>
-      <c r="AA50" s="211"/>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B51" s="211"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="211"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="211"/>
-      <c r="H51" s="211"/>
-      <c r="I51" s="211"/>
-      <c r="J51" s="211"/>
-      <c r="K51" s="211"/>
-      <c r="L51" s="211"/>
-      <c r="M51" s="211"/>
-      <c r="N51" s="211"/>
-      <c r="O51" s="211"/>
-      <c r="P51" s="211"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="211"/>
-      <c r="S51" s="211"/>
-      <c r="T51" s="211"/>
-      <c r="U51" s="211"/>
-      <c r="V51" s="211"/>
-      <c r="W51" s="211"/>
-      <c r="X51" s="211"/>
-      <c r="Y51" s="211"/>
-      <c r="Z51" s="211"/>
-      <c r="AA51" s="211"/>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B52" s="212">
-        <v>406</v>
-      </c>
-      <c r="C52" s="212"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="213" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="213"/>
-      <c r="H52" s="213"/>
-      <c r="I52" s="213"/>
-      <c r="J52" s="213"/>
-      <c r="K52" s="213"/>
-      <c r="L52" s="213"/>
-      <c r="M52" s="213"/>
-      <c r="N52" s="213"/>
-      <c r="O52" s="213"/>
-      <c r="P52" s="213"/>
-      <c r="Q52" s="213"/>
-      <c r="R52" s="213"/>
-      <c r="S52" s="213"/>
-      <c r="T52" s="213"/>
-      <c r="U52" s="213"/>
-      <c r="V52" s="213"/>
-      <c r="W52" s="213"/>
-      <c r="X52" s="213"/>
-      <c r="Y52" s="213"/>
-      <c r="Z52" s="213"/>
-      <c r="AA52" s="213"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B53" s="212"/>
-      <c r="C53" s="212"/>
-      <c r="D53" s="212"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="213"/>
-      <c r="L53" s="213"/>
-      <c r="M53" s="213"/>
-      <c r="N53" s="213"/>
-      <c r="O53" s="213"/>
-      <c r="P53" s="213"/>
-      <c r="Q53" s="213"/>
-      <c r="R53" s="213"/>
-      <c r="S53" s="213"/>
-      <c r="T53" s="213"/>
-      <c r="U53" s="213"/>
-      <c r="V53" s="213"/>
-      <c r="W53" s="213"/>
-      <c r="X53" s="213"/>
-      <c r="Y53" s="213"/>
-      <c r="Z53" s="213"/>
-      <c r="AA53" s="213"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B54" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="148"/>
-      <c r="K54" s="148"/>
-      <c r="L54" s="148"/>
-      <c r="M54" s="148"/>
-      <c r="N54" s="148"/>
-      <c r="O54" s="148"/>
-      <c r="P54" s="148"/>
-      <c r="Q54" s="148"/>
-      <c r="R54" s="148"/>
-      <c r="S54" s="148"/>
-      <c r="T54" s="148"/>
-      <c r="U54" s="148"/>
-      <c r="V54" s="148"/>
-      <c r="W54" s="148"/>
-      <c r="X54" s="148"/>
-      <c r="Y54" s="148"/>
-      <c r="Z54" s="148"/>
-      <c r="AA54" s="148"/>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B55" s="211" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="211"/>
-      <c r="D55" s="211"/>
-      <c r="E55" s="211"/>
-      <c r="F55" s="211"/>
-      <c r="G55" s="211"/>
-      <c r="H55" s="211"/>
-      <c r="I55" s="211"/>
-      <c r="J55" s="211"/>
-      <c r="K55" s="211"/>
-      <c r="L55" s="211"/>
-      <c r="M55" s="211"/>
-      <c r="N55" s="211"/>
-      <c r="O55" s="211"/>
-      <c r="P55" s="211"/>
-      <c r="Q55" s="211"/>
-      <c r="R55" s="211"/>
-      <c r="S55" s="211"/>
-      <c r="T55" s="211"/>
-      <c r="U55" s="211"/>
-      <c r="V55" s="211"/>
-      <c r="W55" s="211"/>
-      <c r="X55" s="211"/>
-      <c r="Y55" s="211"/>
-      <c r="Z55" s="211"/>
-      <c r="AA55" s="211"/>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B56" s="211"/>
-      <c r="C56" s="211"/>
-      <c r="D56" s="211"/>
-      <c r="E56" s="211"/>
-      <c r="F56" s="211"/>
-      <c r="G56" s="211"/>
-      <c r="H56" s="211"/>
-      <c r="I56" s="211"/>
-      <c r="J56" s="211"/>
-      <c r="K56" s="211"/>
-      <c r="L56" s="211"/>
-      <c r="M56" s="211"/>
-      <c r="N56" s="211"/>
-      <c r="O56" s="211"/>
-      <c r="P56" s="211"/>
-      <c r="Q56" s="211"/>
-      <c r="R56" s="211"/>
-      <c r="S56" s="211"/>
-      <c r="T56" s="211"/>
-      <c r="U56" s="211"/>
-      <c r="V56" s="211"/>
-      <c r="W56" s="211"/>
-      <c r="X56" s="211"/>
-      <c r="Y56" s="211"/>
-      <c r="Z56" s="211"/>
-      <c r="AA56" s="211"/>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B57" s="212">
-        <v>406</v>
-      </c>
-      <c r="C57" s="212"/>
-      <c r="D57" s="212"/>
-      <c r="E57" s="212"/>
-      <c r="F57" s="213" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="213"/>
-      <c r="H57" s="213"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="213"/>
-      <c r="L57" s="213"/>
-      <c r="M57" s="213"/>
-      <c r="N57" s="213"/>
-      <c r="O57" s="213"/>
-      <c r="P57" s="213"/>
-      <c r="Q57" s="213"/>
-      <c r="R57" s="213"/>
-      <c r="S57" s="213"/>
-      <c r="T57" s="213"/>
-      <c r="U57" s="213"/>
-      <c r="V57" s="213"/>
-      <c r="W57" s="213"/>
-      <c r="X57" s="213"/>
-      <c r="Y57" s="213"/>
-      <c r="Z57" s="213"/>
-      <c r="AA57" s="213"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B58" s="212"/>
-      <c r="C58" s="212"/>
-      <c r="D58" s="212"/>
-      <c r="E58" s="212"/>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="213"/>
-      <c r="L58" s="213"/>
-      <c r="M58" s="213"/>
-      <c r="N58" s="213"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213"/>
-      <c r="Q58" s="213"/>
-      <c r="R58" s="213"/>
-      <c r="S58" s="213"/>
-      <c r="T58" s="213"/>
-      <c r="U58" s="213"/>
-      <c r="V58" s="213"/>
-      <c r="W58" s="213"/>
-      <c r="X58" s="213"/>
-      <c r="Y58" s="213"/>
-      <c r="Z58" s="213"/>
-      <c r="AA58" s="213"/>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B59" s="148" t="s">
+      <c r="G74" s="229"/>
+      <c r="H74" s="229"/>
+      <c r="I74" s="229"/>
+      <c r="J74" s="229"/>
+      <c r="K74" s="229"/>
+      <c r="L74" s="229"/>
+      <c r="M74" s="229"/>
+      <c r="N74" s="229"/>
+      <c r="O74" s="229"/>
+      <c r="P74" s="229"/>
+      <c r="Q74" s="229"/>
+      <c r="R74" s="229"/>
+      <c r="S74" s="229"/>
+      <c r="T74" s="229"/>
+      <c r="U74" s="229"/>
+      <c r="V74" s="229"/>
+      <c r="W74" s="229"/>
+      <c r="X74" s="229"/>
+      <c r="Y74" s="229"/>
+      <c r="Z74" s="229"/>
+      <c r="AA74" s="229"/>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B75" s="228"/>
+      <c r="C75" s="228"/>
+      <c r="D75" s="228"/>
+      <c r="E75" s="228"/>
+      <c r="F75" s="229"/>
+      <c r="G75" s="229"/>
+      <c r="H75" s="229"/>
+      <c r="I75" s="229"/>
+      <c r="J75" s="229"/>
+      <c r="K75" s="229"/>
+      <c r="L75" s="229"/>
+      <c r="M75" s="229"/>
+      <c r="N75" s="229"/>
+      <c r="O75" s="229"/>
+      <c r="P75" s="229"/>
+      <c r="Q75" s="229"/>
+      <c r="R75" s="229"/>
+      <c r="S75" s="229"/>
+      <c r="T75" s="229"/>
+      <c r="U75" s="229"/>
+      <c r="V75" s="229"/>
+      <c r="W75" s="229"/>
+      <c r="X75" s="229"/>
+      <c r="Y75" s="229"/>
+      <c r="Z75" s="229"/>
+      <c r="AA75" s="229"/>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B76" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="148"/>
-      <c r="G59" s="148"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="148"/>
-      <c r="K59" s="148"/>
-      <c r="L59" s="148"/>
-      <c r="M59" s="148"/>
-      <c r="N59" s="148"/>
-      <c r="O59" s="148"/>
-      <c r="P59" s="148"/>
-      <c r="Q59" s="148"/>
-      <c r="R59" s="148"/>
-      <c r="S59" s="148"/>
-      <c r="T59" s="148"/>
-      <c r="U59" s="148"/>
-      <c r="V59" s="148"/>
-      <c r="W59" s="148"/>
-      <c r="X59" s="148"/>
-      <c r="Y59" s="148"/>
-      <c r="Z59" s="148"/>
-      <c r="AA59" s="148"/>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B60" s="211" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" s="211"/>
-      <c r="D60" s="211"/>
-      <c r="E60" s="211"/>
-      <c r="F60" s="211"/>
-      <c r="G60" s="211"/>
-      <c r="H60" s="211"/>
-      <c r="I60" s="211"/>
-      <c r="J60" s="211"/>
-      <c r="K60" s="211"/>
-      <c r="L60" s="211"/>
-      <c r="M60" s="211"/>
-      <c r="N60" s="211"/>
-      <c r="O60" s="211"/>
-      <c r="P60" s="211"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="211"/>
-      <c r="S60" s="211"/>
-      <c r="T60" s="211"/>
-      <c r="U60" s="211"/>
-      <c r="V60" s="211"/>
-      <c r="W60" s="211"/>
-      <c r="X60" s="211"/>
-      <c r="Y60" s="211"/>
-      <c r="Z60" s="211"/>
-      <c r="AA60" s="211"/>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B61" s="211"/>
-      <c r="C61" s="211"/>
-      <c r="D61" s="211"/>
-      <c r="E61" s="211"/>
-      <c r="F61" s="211"/>
-      <c r="G61" s="211"/>
-      <c r="H61" s="211"/>
-      <c r="I61" s="211"/>
-      <c r="J61" s="211"/>
-      <c r="K61" s="211"/>
-      <c r="L61" s="211"/>
-      <c r="M61" s="211"/>
-      <c r="N61" s="211"/>
-      <c r="O61" s="211"/>
-      <c r="P61" s="211"/>
-      <c r="Q61" s="211"/>
-      <c r="R61" s="211"/>
-      <c r="S61" s="211"/>
-      <c r="T61" s="211"/>
-      <c r="U61" s="211"/>
-      <c r="V61" s="211"/>
-      <c r="W61" s="211"/>
-      <c r="X61" s="211"/>
-      <c r="Y61" s="211"/>
-      <c r="Z61" s="211"/>
-      <c r="AA61" s="211"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B62" s="212">
-        <v>406</v>
-      </c>
-      <c r="C62" s="212"/>
-      <c r="D62" s="212"/>
-      <c r="E62" s="212"/>
-      <c r="F62" s="213" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="213"/>
-      <c r="H62" s="213"/>
-      <c r="I62" s="213"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="213"/>
-      <c r="L62" s="213"/>
-      <c r="M62" s="213"/>
-      <c r="N62" s="213"/>
-      <c r="O62" s="213"/>
-      <c r="P62" s="213"/>
-      <c r="Q62" s="213"/>
-      <c r="R62" s="213"/>
-      <c r="S62" s="213"/>
-      <c r="T62" s="213"/>
-      <c r="U62" s="213"/>
-      <c r="V62" s="213"/>
-      <c r="W62" s="213"/>
-      <c r="X62" s="213"/>
-      <c r="Y62" s="213"/>
-      <c r="Z62" s="213"/>
-      <c r="AA62" s="213"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B63" s="212"/>
-      <c r="C63" s="212"/>
-      <c r="D63" s="212"/>
-      <c r="E63" s="212"/>
-      <c r="F63" s="213"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="213"/>
-      <c r="L63" s="213"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="213"/>
-      <c r="P63" s="213"/>
-      <c r="Q63" s="213"/>
-      <c r="R63" s="213"/>
-      <c r="S63" s="213"/>
-      <c r="T63" s="213"/>
-      <c r="U63" s="213"/>
-      <c r="V63" s="213"/>
-      <c r="W63" s="213"/>
-      <c r="X63" s="213"/>
-      <c r="Y63" s="213"/>
-      <c r="Z63" s="213"/>
-      <c r="AA63" s="213"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B64" s="148" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="148"/>
-      <c r="N64" s="148"/>
-      <c r="O64" s="148"/>
-      <c r="P64" s="148"/>
-      <c r="Q64" s="148"/>
-      <c r="R64" s="148"/>
-      <c r="S64" s="148"/>
-      <c r="T64" s="148"/>
-      <c r="U64" s="148"/>
-      <c r="V64" s="148"/>
-      <c r="W64" s="148"/>
-      <c r="X64" s="148"/>
-      <c r="Y64" s="148"/>
-      <c r="Z64" s="148"/>
-      <c r="AA64" s="148"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B65" s="211" t="s">
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="148"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="148"/>
+      <c r="P76" s="148"/>
+      <c r="Q76" s="148"/>
+      <c r="R76" s="148"/>
+      <c r="S76" s="148"/>
+      <c r="T76" s="148"/>
+      <c r="U76" s="148"/>
+      <c r="V76" s="148"/>
+      <c r="W76" s="148"/>
+      <c r="X76" s="148"/>
+      <c r="Y76" s="148"/>
+      <c r="Z76" s="148"/>
+      <c r="AA76" s="148"/>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B77" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="211"/>
-      <c r="D65" s="211"/>
-      <c r="E65" s="211"/>
-      <c r="F65" s="211"/>
-      <c r="G65" s="211"/>
-      <c r="H65" s="211"/>
-      <c r="I65" s="211"/>
-      <c r="J65" s="211"/>
-      <c r="K65" s="211"/>
-      <c r="L65" s="211"/>
-      <c r="M65" s="211"/>
-      <c r="N65" s="211"/>
-      <c r="O65" s="211"/>
-      <c r="P65" s="211"/>
-      <c r="Q65" s="211"/>
-      <c r="R65" s="211"/>
-      <c r="S65" s="211"/>
-      <c r="T65" s="211"/>
-      <c r="U65" s="211"/>
-      <c r="V65" s="211"/>
-      <c r="W65" s="211"/>
-      <c r="X65" s="211"/>
-      <c r="Y65" s="211"/>
-      <c r="Z65" s="211"/>
-      <c r="AA65" s="211"/>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B66" s="211"/>
-      <c r="C66" s="211"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="211"/>
-      <c r="F66" s="211"/>
-      <c r="G66" s="211"/>
-      <c r="H66" s="211"/>
-      <c r="I66" s="211"/>
-      <c r="J66" s="211"/>
-      <c r="K66" s="211"/>
-      <c r="L66" s="211"/>
-      <c r="M66" s="211"/>
-      <c r="N66" s="211"/>
-      <c r="O66" s="211"/>
-      <c r="P66" s="211"/>
-      <c r="Q66" s="211"/>
-      <c r="R66" s="211"/>
-      <c r="S66" s="211"/>
-      <c r="T66" s="211"/>
-      <c r="U66" s="211"/>
-      <c r="V66" s="211"/>
-      <c r="W66" s="211"/>
-      <c r="X66" s="211"/>
-      <c r="Y66" s="211"/>
-      <c r="Z66" s="211"/>
-      <c r="AA66" s="211"/>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B67" s="212">
-        <v>406</v>
-      </c>
-      <c r="C67" s="212"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="212"/>
-      <c r="F67" s="213" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" s="213"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="213"/>
-      <c r="J67" s="213"/>
-      <c r="K67" s="213"/>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="213"/>
-      <c r="O67" s="213"/>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="213"/>
-      <c r="R67" s="213"/>
-      <c r="S67" s="213"/>
-      <c r="T67" s="213"/>
-      <c r="U67" s="213"/>
-      <c r="V67" s="213"/>
-      <c r="W67" s="213"/>
-      <c r="X67" s="213"/>
-      <c r="Y67" s="213"/>
-      <c r="Z67" s="213"/>
-      <c r="AA67" s="213"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B68" s="212"/>
-      <c r="C68" s="212"/>
-      <c r="D68" s="212"/>
-      <c r="E68" s="212"/>
-      <c r="F68" s="213"/>
-      <c r="G68" s="213"/>
-      <c r="H68" s="213"/>
-      <c r="I68" s="213"/>
-      <c r="J68" s="213"/>
-      <c r="K68" s="213"/>
-      <c r="L68" s="213"/>
-      <c r="M68" s="213"/>
-      <c r="N68" s="213"/>
-      <c r="O68" s="213"/>
-      <c r="P68" s="213"/>
-      <c r="Q68" s="213"/>
-      <c r="R68" s="213"/>
-      <c r="S68" s="213"/>
-      <c r="T68" s="213"/>
-      <c r="U68" s="213"/>
-      <c r="V68" s="213"/>
-      <c r="W68" s="213"/>
-      <c r="X68" s="213"/>
-      <c r="Y68" s="213"/>
-      <c r="Z68" s="213"/>
-      <c r="AA68" s="213"/>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B69" s="148" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="148"/>
-      <c r="M69" s="148"/>
-      <c r="N69" s="148"/>
-      <c r="O69" s="148"/>
-      <c r="P69" s="148"/>
-      <c r="Q69" s="148"/>
-      <c r="R69" s="148"/>
-      <c r="S69" s="148"/>
-      <c r="T69" s="148"/>
-      <c r="U69" s="148"/>
-      <c r="V69" s="148"/>
-      <c r="W69" s="148"/>
-      <c r="X69" s="148"/>
-      <c r="Y69" s="148"/>
-      <c r="Z69" s="148"/>
-      <c r="AA69" s="148"/>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B70" s="211" t="s">
+      <c r="C77" s="211"/>
+      <c r="D77" s="211"/>
+      <c r="E77" s="211"/>
+      <c r="F77" s="211"/>
+      <c r="G77" s="211"/>
+      <c r="H77" s="211"/>
+      <c r="I77" s="211"/>
+      <c r="J77" s="211"/>
+      <c r="K77" s="211"/>
+      <c r="L77" s="211"/>
+      <c r="M77" s="211"/>
+      <c r="N77" s="211"/>
+      <c r="O77" s="211"/>
+      <c r="P77" s="211"/>
+      <c r="Q77" s="211"/>
+      <c r="R77" s="211"/>
+      <c r="S77" s="211"/>
+      <c r="T77" s="211"/>
+      <c r="U77" s="211"/>
+      <c r="V77" s="211"/>
+      <c r="W77" s="211"/>
+      <c r="X77" s="211"/>
+      <c r="Y77" s="211"/>
+      <c r="Z77" s="211"/>
+      <c r="AA77" s="211"/>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B78" s="211"/>
+      <c r="C78" s="211"/>
+      <c r="D78" s="211"/>
+      <c r="E78" s="211"/>
+      <c r="F78" s="211"/>
+      <c r="G78" s="211"/>
+      <c r="H78" s="211"/>
+      <c r="I78" s="211"/>
+      <c r="J78" s="211"/>
+      <c r="K78" s="211"/>
+      <c r="L78" s="211"/>
+      <c r="M78" s="211"/>
+      <c r="N78" s="211"/>
+      <c r="O78" s="211"/>
+      <c r="P78" s="211"/>
+      <c r="Q78" s="211"/>
+      <c r="R78" s="211"/>
+      <c r="S78" s="211"/>
+      <c r="T78" s="211"/>
+      <c r="U78" s="211"/>
+      <c r="V78" s="211"/>
+      <c r="W78" s="211"/>
+      <c r="X78" s="211"/>
+      <c r="Y78" s="211"/>
+      <c r="Z78" s="211"/>
+      <c r="AA78" s="211"/>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B79" s="218">
+        <v>500</v>
+      </c>
+      <c r="C79" s="218"/>
+      <c r="D79" s="218"/>
+      <c r="E79" s="218"/>
+      <c r="F79" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="219"/>
+      <c r="H79" s="219"/>
+      <c r="I79" s="219"/>
+      <c r="J79" s="219"/>
+      <c r="K79" s="219"/>
+      <c r="L79" s="219"/>
+      <c r="M79" s="219"/>
+      <c r="N79" s="219"/>
+      <c r="O79" s="219"/>
+      <c r="P79" s="219"/>
+      <c r="Q79" s="219"/>
+      <c r="R79" s="219"/>
+      <c r="S79" s="219"/>
+      <c r="T79" s="219"/>
+      <c r="U79" s="219"/>
+      <c r="V79" s="219"/>
+      <c r="W79" s="219"/>
+      <c r="X79" s="219"/>
+      <c r="Y79" s="219"/>
+      <c r="Z79" s="219"/>
+      <c r="AA79" s="219"/>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B80" s="218"/>
+      <c r="C80" s="218"/>
+      <c r="D80" s="218"/>
+      <c r="E80" s="218"/>
+      <c r="F80" s="219"/>
+      <c r="G80" s="219"/>
+      <c r="H80" s="219"/>
+      <c r="I80" s="219"/>
+      <c r="J80" s="219"/>
+      <c r="K80" s="219"/>
+      <c r="L80" s="219"/>
+      <c r="M80" s="219"/>
+      <c r="N80" s="219"/>
+      <c r="O80" s="219"/>
+      <c r="P80" s="219"/>
+      <c r="Q80" s="219"/>
+      <c r="R80" s="219"/>
+      <c r="S80" s="219"/>
+      <c r="T80" s="219"/>
+      <c r="U80" s="219"/>
+      <c r="V80" s="219"/>
+      <c r="W80" s="219"/>
+      <c r="X80" s="219"/>
+      <c r="Y80" s="219"/>
+      <c r="Z80" s="219"/>
+      <c r="AA80" s="219"/>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B81" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="148"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="148"/>
+      <c r="H81" s="148"/>
+      <c r="I81" s="148"/>
+      <c r="J81" s="148"/>
+      <c r="K81" s="148"/>
+      <c r="L81" s="148"/>
+      <c r="M81" s="148"/>
+      <c r="N81" s="148"/>
+      <c r="O81" s="148"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="148"/>
+      <c r="R81" s="148"/>
+      <c r="S81" s="148"/>
+      <c r="T81" s="148"/>
+      <c r="U81" s="148"/>
+      <c r="V81" s="148"/>
+      <c r="W81" s="148"/>
+      <c r="X81" s="148"/>
+      <c r="Y81" s="148"/>
+      <c r="Z81" s="148"/>
+      <c r="AA81" s="148"/>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B82" s="211" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="211"/>
-      <c r="K70" s="211"/>
-      <c r="L70" s="211"/>
-      <c r="M70" s="211"/>
-      <c r="N70" s="211"/>
-      <c r="O70" s="211"/>
-      <c r="P70" s="211"/>
-      <c r="Q70" s="211"/>
-      <c r="R70" s="211"/>
-      <c r="S70" s="211"/>
-      <c r="T70" s="211"/>
-      <c r="U70" s="211"/>
-      <c r="V70" s="211"/>
-      <c r="W70" s="211"/>
-      <c r="X70" s="211"/>
-      <c r="Y70" s="211"/>
-      <c r="Z70" s="211"/>
-      <c r="AA70" s="211"/>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B71" s="211"/>
-      <c r="C71" s="211"/>
-      <c r="D71" s="211"/>
-      <c r="E71" s="211"/>
-      <c r="F71" s="211"/>
-      <c r="G71" s="211"/>
-      <c r="H71" s="211"/>
-      <c r="I71" s="211"/>
-      <c r="J71" s="211"/>
-      <c r="K71" s="211"/>
-      <c r="L71" s="211"/>
-      <c r="M71" s="211"/>
-      <c r="N71" s="211"/>
-      <c r="O71" s="211"/>
-      <c r="P71" s="211"/>
-      <c r="Q71" s="211"/>
-      <c r="R71" s="211"/>
-      <c r="S71" s="211"/>
-      <c r="T71" s="211"/>
-      <c r="U71" s="211"/>
-      <c r="V71" s="211"/>
-      <c r="W71" s="211"/>
-      <c r="X71" s="211"/>
-      <c r="Y71" s="211"/>
-      <c r="Z71" s="211"/>
-      <c r="AA71" s="211"/>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B72" s="228">
-        <v>409</v>
-      </c>
-      <c r="C72" s="228"/>
-      <c r="D72" s="228"/>
-      <c r="E72" s="228"/>
-      <c r="F72" s="229" t="s">
+      <c r="C82" s="211"/>
+      <c r="D82" s="211"/>
+      <c r="E82" s="211"/>
+      <c r="F82" s="211"/>
+      <c r="G82" s="211"/>
+      <c r="H82" s="211"/>
+      <c r="I82" s="211"/>
+      <c r="J82" s="211"/>
+      <c r="K82" s="211"/>
+      <c r="L82" s="211"/>
+      <c r="M82" s="211"/>
+      <c r="N82" s="211"/>
+      <c r="O82" s="211"/>
+      <c r="P82" s="211"/>
+      <c r="Q82" s="211"/>
+      <c r="R82" s="211"/>
+      <c r="S82" s="211"/>
+      <c r="T82" s="211"/>
+      <c r="U82" s="211"/>
+      <c r="V82" s="211"/>
+      <c r="W82" s="211"/>
+      <c r="X82" s="211"/>
+      <c r="Y82" s="211"/>
+      <c r="Z82" s="211"/>
+      <c r="AA82" s="211"/>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B83" s="211"/>
+      <c r="C83" s="211"/>
+      <c r="D83" s="211"/>
+      <c r="E83" s="211"/>
+      <c r="F83" s="211"/>
+      <c r="G83" s="211"/>
+      <c r="H83" s="211"/>
+      <c r="I83" s="211"/>
+      <c r="J83" s="211"/>
+      <c r="K83" s="211"/>
+      <c r="L83" s="211"/>
+      <c r="M83" s="211"/>
+      <c r="N83" s="211"/>
+      <c r="O83" s="211"/>
+      <c r="P83" s="211"/>
+      <c r="Q83" s="211"/>
+      <c r="R83" s="211"/>
+      <c r="S83" s="211"/>
+      <c r="T83" s="211"/>
+      <c r="U83" s="211"/>
+      <c r="V83" s="211"/>
+      <c r="W83" s="211"/>
+      <c r="X83" s="211"/>
+      <c r="Y83" s="211"/>
+      <c r="Z83" s="211"/>
+      <c r="AA83" s="211"/>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B84" s="216">
+        <v>200</v>
+      </c>
+      <c r="C84" s="216"/>
+      <c r="D84" s="216"/>
+      <c r="E84" s="216"/>
+      <c r="F84" s="217" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="217"/>
+      <c r="H84" s="217"/>
+      <c r="I84" s="217"/>
+      <c r="J84" s="217"/>
+      <c r="K84" s="217"/>
+      <c r="L84" s="217"/>
+      <c r="M84" s="217"/>
+      <c r="N84" s="217"/>
+      <c r="O84" s="217"/>
+      <c r="P84" s="217"/>
+      <c r="Q84" s="217"/>
+      <c r="R84" s="217"/>
+      <c r="S84" s="217"/>
+      <c r="T84" s="217"/>
+      <c r="U84" s="217"/>
+      <c r="V84" s="217"/>
+      <c r="W84" s="217"/>
+      <c r="X84" s="217"/>
+      <c r="Y84" s="217"/>
+      <c r="Z84" s="217"/>
+      <c r="AA84" s="217"/>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B85" s="216"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="216"/>
+      <c r="E85" s="216"/>
+      <c r="F85" s="217"/>
+      <c r="G85" s="217"/>
+      <c r="H85" s="217"/>
+      <c r="I85" s="217"/>
+      <c r="J85" s="217"/>
+      <c r="K85" s="217"/>
+      <c r="L85" s="217"/>
+      <c r="M85" s="217"/>
+      <c r="N85" s="217"/>
+      <c r="O85" s="217"/>
+      <c r="P85" s="217"/>
+      <c r="Q85" s="217"/>
+      <c r="R85" s="217"/>
+      <c r="S85" s="217"/>
+      <c r="T85" s="217"/>
+      <c r="U85" s="217"/>
+      <c r="V85" s="217"/>
+      <c r="W85" s="217"/>
+      <c r="X85" s="217"/>
+      <c r="Y85" s="217"/>
+      <c r="Z85" s="217"/>
+      <c r="AA85" s="217"/>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B86" s="148" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="229"/>
-      <c r="H72" s="229"/>
-      <c r="I72" s="229"/>
-      <c r="J72" s="229"/>
-      <c r="K72" s="229"/>
-      <c r="L72" s="229"/>
-      <c r="M72" s="229"/>
-      <c r="N72" s="229"/>
-      <c r="O72" s="229"/>
-      <c r="P72" s="229"/>
-      <c r="Q72" s="229"/>
-      <c r="R72" s="229"/>
-      <c r="S72" s="229"/>
-      <c r="T72" s="229"/>
-      <c r="U72" s="229"/>
-      <c r="V72" s="229"/>
-      <c r="W72" s="229"/>
-      <c r="X72" s="229"/>
-      <c r="Y72" s="229"/>
-      <c r="Z72" s="229"/>
-      <c r="AA72" s="229"/>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="229"/>
-      <c r="G73" s="229"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="229"/>
-      <c r="J73" s="229"/>
-      <c r="K73" s="229"/>
-      <c r="L73" s="229"/>
-      <c r="M73" s="229"/>
-      <c r="N73" s="229"/>
-      <c r="O73" s="229"/>
-      <c r="P73" s="229"/>
-      <c r="Q73" s="229"/>
-      <c r="R73" s="229"/>
-      <c r="S73" s="229"/>
-      <c r="T73" s="229"/>
-      <c r="U73" s="229"/>
-      <c r="V73" s="229"/>
-      <c r="W73" s="229"/>
-      <c r="X73" s="229"/>
-      <c r="Y73" s="229"/>
-      <c r="Z73" s="229"/>
-      <c r="AA73" s="229"/>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B74" s="148" t="s">
-        <v>234</v>
-      </c>
-      <c r="C74" s="148"/>
-      <c r="D74" s="148"/>
-      <c r="E74" s="148"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="148"/>
-      <c r="K74" s="148"/>
-      <c r="L74" s="148"/>
-      <c r="M74" s="148"/>
-      <c r="N74" s="148"/>
-      <c r="O74" s="148"/>
-      <c r="P74" s="148"/>
-      <c r="Q74" s="148"/>
-      <c r="R74" s="148"/>
-      <c r="S74" s="148"/>
-      <c r="T74" s="148"/>
-      <c r="U74" s="148"/>
-      <c r="V74" s="148"/>
-      <c r="W74" s="148"/>
-      <c r="X74" s="148"/>
-      <c r="Y74" s="148"/>
-      <c r="Z74" s="148"/>
-      <c r="AA74" s="148"/>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B75" s="211" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="211"/>
-      <c r="D75" s="211"/>
-      <c r="E75" s="211"/>
-      <c r="F75" s="211"/>
-      <c r="G75" s="211"/>
-      <c r="H75" s="211"/>
-      <c r="I75" s="211"/>
-      <c r="J75" s="211"/>
-      <c r="K75" s="211"/>
-      <c r="L75" s="211"/>
-      <c r="M75" s="211"/>
-      <c r="N75" s="211"/>
-      <c r="O75" s="211"/>
-      <c r="P75" s="211"/>
-      <c r="Q75" s="211"/>
-      <c r="R75" s="211"/>
-      <c r="S75" s="211"/>
-      <c r="T75" s="211"/>
-      <c r="U75" s="211"/>
-      <c r="V75" s="211"/>
-      <c r="W75" s="211"/>
-      <c r="X75" s="211"/>
-      <c r="Y75" s="211"/>
-      <c r="Z75" s="211"/>
-      <c r="AA75" s="211"/>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B76" s="211"/>
-      <c r="C76" s="211"/>
-      <c r="D76" s="211"/>
-      <c r="E76" s="211"/>
-      <c r="F76" s="211"/>
-      <c r="G76" s="211"/>
-      <c r="H76" s="211"/>
-      <c r="I76" s="211"/>
-      <c r="J76" s="211"/>
-      <c r="K76" s="211"/>
-      <c r="L76" s="211"/>
-      <c r="M76" s="211"/>
-      <c r="N76" s="211"/>
-      <c r="O76" s="211"/>
-      <c r="P76" s="211"/>
-      <c r="Q76" s="211"/>
-      <c r="R76" s="211"/>
-      <c r="S76" s="211"/>
-      <c r="T76" s="211"/>
-      <c r="U76" s="211"/>
-      <c r="V76" s="211"/>
-      <c r="W76" s="211"/>
-      <c r="X76" s="211"/>
-      <c r="Y76" s="211"/>
-      <c r="Z76" s="211"/>
-      <c r="AA76" s="211"/>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B77" s="218">
-        <v>500</v>
-      </c>
-      <c r="C77" s="218"/>
-      <c r="D77" s="218"/>
-      <c r="E77" s="218"/>
-      <c r="F77" s="219" t="s">
-        <v>130</v>
-      </c>
-      <c r="G77" s="219"/>
-      <c r="H77" s="219"/>
-      <c r="I77" s="219"/>
-      <c r="J77" s="219"/>
-      <c r="K77" s="219"/>
-      <c r="L77" s="219"/>
-      <c r="M77" s="219"/>
-      <c r="N77" s="219"/>
-      <c r="O77" s="219"/>
-      <c r="P77" s="219"/>
-      <c r="Q77" s="219"/>
-      <c r="R77" s="219"/>
-      <c r="S77" s="219"/>
-      <c r="T77" s="219"/>
-      <c r="U77" s="219"/>
-      <c r="V77" s="219"/>
-      <c r="W77" s="219"/>
-      <c r="X77" s="219"/>
-      <c r="Y77" s="219"/>
-      <c r="Z77" s="219"/>
-      <c r="AA77" s="219"/>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B78" s="218"/>
-      <c r="C78" s="218"/>
-      <c r="D78" s="218"/>
-      <c r="E78" s="218"/>
-      <c r="F78" s="219"/>
-      <c r="G78" s="219"/>
-      <c r="H78" s="219"/>
-      <c r="I78" s="219"/>
-      <c r="J78" s="219"/>
-      <c r="K78" s="219"/>
-      <c r="L78" s="219"/>
-      <c r="M78" s="219"/>
-      <c r="N78" s="219"/>
-      <c r="O78" s="219"/>
-      <c r="P78" s="219"/>
-      <c r="Q78" s="219"/>
-      <c r="R78" s="219"/>
-      <c r="S78" s="219"/>
-      <c r="T78" s="219"/>
-      <c r="U78" s="219"/>
-      <c r="V78" s="219"/>
-      <c r="W78" s="219"/>
-      <c r="X78" s="219"/>
-      <c r="Y78" s="219"/>
-      <c r="Z78" s="219"/>
-      <c r="AA78" s="219"/>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B79" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
-      <c r="E79" s="148"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="148"/>
-      <c r="H79" s="148"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="148"/>
-      <c r="K79" s="148"/>
-      <c r="L79" s="148"/>
-      <c r="M79" s="148"/>
-      <c r="N79" s="148"/>
-      <c r="O79" s="148"/>
-      <c r="P79" s="148"/>
-      <c r="Q79" s="148"/>
-      <c r="R79" s="148"/>
-      <c r="S79" s="148"/>
-      <c r="T79" s="148"/>
-      <c r="U79" s="148"/>
-      <c r="V79" s="148"/>
-      <c r="W79" s="148"/>
-      <c r="X79" s="148"/>
-      <c r="Y79" s="148"/>
-      <c r="Z79" s="148"/>
-      <c r="AA79" s="148"/>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B80" s="211" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" s="211"/>
-      <c r="D80" s="211"/>
-      <c r="E80" s="211"/>
-      <c r="F80" s="211"/>
-      <c r="G80" s="211"/>
-      <c r="H80" s="211"/>
-      <c r="I80" s="211"/>
-      <c r="J80" s="211"/>
-      <c r="K80" s="211"/>
-      <c r="L80" s="211"/>
-      <c r="M80" s="211"/>
-      <c r="N80" s="211"/>
-      <c r="O80" s="211"/>
-      <c r="P80" s="211"/>
-      <c r="Q80" s="211"/>
-      <c r="R80" s="211"/>
-      <c r="S80" s="211"/>
-      <c r="T80" s="211"/>
-      <c r="U80" s="211"/>
-      <c r="V80" s="211"/>
-      <c r="W80" s="211"/>
-      <c r="X80" s="211"/>
-      <c r="Y80" s="211"/>
-      <c r="Z80" s="211"/>
-      <c r="AA80" s="211"/>
-    </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B81" s="211"/>
-      <c r="C81" s="211"/>
-      <c r="D81" s="211"/>
-      <c r="E81" s="211"/>
-      <c r="F81" s="211"/>
-      <c r="G81" s="211"/>
-      <c r="H81" s="211"/>
-      <c r="I81" s="211"/>
-      <c r="J81" s="211"/>
-      <c r="K81" s="211"/>
-      <c r="L81" s="211"/>
-      <c r="M81" s="211"/>
-      <c r="N81" s="211"/>
-      <c r="O81" s="211"/>
-      <c r="P81" s="211"/>
-      <c r="Q81" s="211"/>
-      <c r="R81" s="211"/>
-      <c r="S81" s="211"/>
-      <c r="T81" s="211"/>
-      <c r="U81" s="211"/>
-      <c r="V81" s="211"/>
-      <c r="W81" s="211"/>
-      <c r="X81" s="211"/>
-      <c r="Y81" s="211"/>
-      <c r="Z81" s="211"/>
-      <c r="AA81" s="211"/>
-    </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B82" s="216">
-        <v>200</v>
-      </c>
-      <c r="C82" s="216"/>
-      <c r="D82" s="216"/>
-      <c r="E82" s="216"/>
-      <c r="F82" s="217" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="217"/>
-      <c r="H82" s="217"/>
-      <c r="I82" s="217"/>
-      <c r="J82" s="217"/>
-      <c r="K82" s="217"/>
-      <c r="L82" s="217"/>
-      <c r="M82" s="217"/>
-      <c r="N82" s="217"/>
-      <c r="O82" s="217"/>
-      <c r="P82" s="217"/>
-      <c r="Q82" s="217"/>
-      <c r="R82" s="217"/>
-      <c r="S82" s="217"/>
-      <c r="T82" s="217"/>
-      <c r="U82" s="217"/>
-      <c r="V82" s="217"/>
-      <c r="W82" s="217"/>
-      <c r="X82" s="217"/>
-      <c r="Y82" s="217"/>
-      <c r="Z82" s="217"/>
-      <c r="AA82" s="217"/>
-    </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B83" s="216"/>
-      <c r="C83" s="216"/>
-      <c r="D83" s="216"/>
-      <c r="E83" s="216"/>
-      <c r="F83" s="217"/>
-      <c r="G83" s="217"/>
-      <c r="H83" s="217"/>
-      <c r="I83" s="217"/>
-      <c r="J83" s="217"/>
-      <c r="K83" s="217"/>
-      <c r="L83" s="217"/>
-      <c r="M83" s="217"/>
-      <c r="N83" s="217"/>
-      <c r="O83" s="217"/>
-      <c r="P83" s="217"/>
-      <c r="Q83" s="217"/>
-      <c r="R83" s="217"/>
-      <c r="S83" s="217"/>
-      <c r="T83" s="217"/>
-      <c r="U83" s="217"/>
-      <c r="V83" s="217"/>
-      <c r="W83" s="217"/>
-      <c r="X83" s="217"/>
-      <c r="Y83" s="217"/>
-      <c r="Z83" s="217"/>
-      <c r="AA83" s="217"/>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B84" s="148" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" s="148"/>
-      <c r="D84" s="148"/>
-      <c r="E84" s="148"/>
-      <c r="F84" s="148"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="148"/>
-      <c r="K84" s="148"/>
-      <c r="L84" s="148"/>
-      <c r="M84" s="148"/>
-      <c r="N84" s="148"/>
-      <c r="O84" s="148"/>
-      <c r="P84" s="148"/>
-      <c r="Q84" s="148"/>
-      <c r="R84" s="148"/>
-      <c r="S84" s="148"/>
-      <c r="T84" s="148"/>
-      <c r="U84" s="148"/>
-      <c r="V84" s="148"/>
-      <c r="W84" s="148"/>
-      <c r="X84" s="148"/>
-      <c r="Y84" s="148"/>
-      <c r="Z84" s="148"/>
-      <c r="AA84" s="148"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="148"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="148"/>
+      <c r="K86" s="148"/>
+      <c r="L86" s="148"/>
+      <c r="M86" s="148"/>
+      <c r="N86" s="148"/>
+      <c r="O86" s="148"/>
+      <c r="P86" s="148"/>
+      <c r="Q86" s="148"/>
+      <c r="R86" s="148"/>
+      <c r="S86" s="148"/>
+      <c r="T86" s="148"/>
+      <c r="U86" s="148"/>
+      <c r="V86" s="148"/>
+      <c r="W86" s="148"/>
+      <c r="X86" s="148"/>
+      <c r="Y86" s="148"/>
+      <c r="Z86" s="148"/>
+      <c r="AA86" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="B70:AA71"/>
+  <mergeCells count="124">
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AL17"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B72:AA73"/>
     <mergeCell ref="AB15:AL15"/>
     <mergeCell ref="AM15:AN15"/>
     <mergeCell ref="AO15:AZ15"/>
@@ -25566,61 +25736,75 @@
     <mergeCell ref="AB16:AL16"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B60:AA61"/>
-    <mergeCell ref="B62:E63"/>
-    <mergeCell ref="F62:AA63"/>
-    <mergeCell ref="C32:AV42"/>
-    <mergeCell ref="B48:AA48"/>
-    <mergeCell ref="B50:AA51"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="F52:AA53"/>
-    <mergeCell ref="B54:AA54"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="B79:AA79"/>
-    <mergeCell ref="B80:AA81"/>
-    <mergeCell ref="B82:E83"/>
-    <mergeCell ref="F82:AA83"/>
-    <mergeCell ref="B84:AA84"/>
+    <mergeCell ref="B62:AA63"/>
+    <mergeCell ref="B64:E65"/>
+    <mergeCell ref="F64:AA65"/>
+    <mergeCell ref="C34:AV44"/>
+    <mergeCell ref="B50:AA50"/>
+    <mergeCell ref="B52:AA53"/>
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="F54:AA55"/>
+    <mergeCell ref="B56:AA56"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="B81:AA81"/>
+    <mergeCell ref="B82:AA83"/>
+    <mergeCell ref="B84:E85"/>
+    <mergeCell ref="F84:AA85"/>
+    <mergeCell ref="B86:AA86"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="J15:S15"/>
     <mergeCell ref="T15:W15"/>
     <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="B75:AA76"/>
-    <mergeCell ref="B77:E78"/>
-    <mergeCell ref="F77:AA78"/>
-    <mergeCell ref="B64:AA64"/>
-    <mergeCell ref="B65:AA66"/>
-    <mergeCell ref="B67:E68"/>
-    <mergeCell ref="F67:AA68"/>
-    <mergeCell ref="B69:AA69"/>
-    <mergeCell ref="B72:E73"/>
-    <mergeCell ref="F72:AA73"/>
-    <mergeCell ref="B74:AA74"/>
-    <mergeCell ref="B55:AA56"/>
-    <mergeCell ref="B57:E58"/>
-    <mergeCell ref="F57:AA58"/>
-    <mergeCell ref="B59:AA59"/>
+    <mergeCell ref="B77:AA78"/>
+    <mergeCell ref="B79:E80"/>
+    <mergeCell ref="F79:AA80"/>
+    <mergeCell ref="B66:AA66"/>
+    <mergeCell ref="B67:AA68"/>
+    <mergeCell ref="B69:E70"/>
+    <mergeCell ref="F69:AA70"/>
+    <mergeCell ref="B71:AA71"/>
+    <mergeCell ref="B74:E75"/>
+    <mergeCell ref="F74:AA75"/>
+    <mergeCell ref="B76:AA76"/>
+    <mergeCell ref="B57:AA58"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="F59:AA60"/>
+    <mergeCell ref="B61:AA61"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AL29"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="T27:W27"/>
     <mergeCell ref="X27:AA27"/>
     <mergeCell ref="AB27:AL27"/>
     <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AL28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
     <mergeCell ref="AO25:AZ25"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="J26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB26:AL26"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="J25:S25"/>
     <mergeCell ref="T25:W25"/>
     <mergeCell ref="X25:AA25"/>
     <mergeCell ref="AB25:AL25"/>
     <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB26:AL26"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="AO19:AZ19"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="J24:S24"/>
     <mergeCell ref="T24:W24"/>
@@ -25628,26 +25812,12 @@
     <mergeCell ref="AB24:AL24"/>
     <mergeCell ref="AM24:AN24"/>
     <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="J23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="AB23:AL23"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AB22:AL22"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AL17"/>
-    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="AB19:AL19"/>
+    <mergeCell ref="AM19:AN19"/>
     <mergeCell ref="AO14:AZ14"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="J14:S14"/>
@@ -25671,18 +25841,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D7">
       <formula1>HttpMethods</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM14:AN19 AM23:AN27">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM25:AN29 AM14:AN21">
       <formula1>YesOrNoList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:W19 T23:W27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T25:W29 T14:W21">
       <formula1>SchemaTypes</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="'API一覧(ver 2.0)'!A1" display="《一覧"/>
     <hyperlink ref="A1:H1" location="'API List'!A1" display="《 - API List"/>
-    <hyperlink ref="AO25:AZ25" location="'Http Staus Codes'!A1" display="HTTP response Code"/>
-    <hyperlink ref="AO24:AZ24" location="'Response Wrapper'!A1" display="'Response Wrapper'!A1"/>
+    <hyperlink ref="AO27:AZ27" location="'Http Staus Codes'!A1" display="HTTP response Code"/>
+    <hyperlink ref="AO26:AZ26" location="'Response Wrapper'!A1" display="'Response Wrapper'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25752,7 +25922,7 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
       <c r="B3" s="102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
@@ -25812,7 +25982,7 @@
     </row>
     <row r="4" spans="1:57" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -25877,7 +26047,7 @@
       <c r="C6" s="246"/>
       <c r="D6" s="247"/>
       <c r="E6" s="170" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6" s="171"/>
       <c r="G6" s="171"/>
@@ -26111,7 +26281,7 @@
     <row r="10" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="176" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="176"/>
       <c r="E10" s="176"/>
@@ -27079,7 +27249,7 @@
     <row r="25" spans="2:57" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D25" s="150"/>
       <c r="E25" s="150"/>
@@ -27091,7 +27261,7 @@
       <c r="K25" s="150"/>
       <c r="L25" s="151"/>
       <c r="M25" s="152" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N25" s="150"/>
       <c r="O25" s="150"/>
@@ -27116,7 +27286,7 @@
       <c r="AD25" s="209"/>
       <c r="AE25" s="210"/>
       <c r="AF25" s="156" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG25" s="157"/>
       <c r="AH25" s="157"/>
@@ -27149,7 +27319,7 @@
     <row r="26" spans="2:57" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D26" s="150"/>
       <c r="E26" s="150"/>
@@ -27161,7 +27331,7 @@
       <c r="K26" s="150"/>
       <c r="L26" s="151"/>
       <c r="M26" s="152" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N26" s="150"/>
       <c r="O26" s="150"/>
@@ -27186,7 +27356,7 @@
       <c r="AD26" s="209"/>
       <c r="AE26" s="210"/>
       <c r="AF26" s="156" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG26" s="157"/>
       <c r="AH26" s="157"/>
@@ -27219,7 +27389,7 @@
     <row r="27" spans="2:57" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="149" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D27" s="150"/>
       <c r="E27" s="150"/>
@@ -27231,7 +27401,7 @@
       <c r="K27" s="150"/>
       <c r="L27" s="151"/>
       <c r="M27" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="150"/>
@@ -27256,7 +27426,7 @@
       <c r="AD27" s="209"/>
       <c r="AE27" s="210"/>
       <c r="AF27" s="156" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG27" s="157"/>
       <c r="AH27" s="157"/>
@@ -27289,7 +27459,7 @@
     <row r="28" spans="2:57" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D28" s="150"/>
       <c r="E28" s="150"/>
@@ -27301,7 +27471,7 @@
       <c r="K28" s="150"/>
       <c r="L28" s="151"/>
       <c r="M28" s="152" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N28" s="150"/>
       <c r="O28" s="150"/>
@@ -27326,7 +27496,7 @@
       <c r="AD28" s="209"/>
       <c r="AE28" s="210"/>
       <c r="AF28" s="156" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG28" s="157"/>
       <c r="AH28" s="157"/>
@@ -27359,7 +27529,7 @@
     <row r="29" spans="2:57" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D29" s="150"/>
       <c r="E29" s="150"/>
@@ -27371,7 +27541,7 @@
       <c r="K29" s="150"/>
       <c r="L29" s="151"/>
       <c r="M29" s="152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N29" s="150"/>
       <c r="O29" s="150"/>
@@ -27396,7 +27566,7 @@
       <c r="AD29" s="209"/>
       <c r="AE29" s="210"/>
       <c r="AF29" s="156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG29" s="157"/>
       <c r="AH29" s="157"/>
@@ -27429,7 +27599,7 @@
     <row r="30" spans="2:57" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="149" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D30" s="150"/>
       <c r="E30" s="150"/>
@@ -27441,7 +27611,7 @@
       <c r="K30" s="150"/>
       <c r="L30" s="151"/>
       <c r="M30" s="152" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N30" s="150"/>
       <c r="O30" s="150"/>
@@ -27454,19 +27624,19 @@
       <c r="V30" s="150"/>
       <c r="W30" s="151"/>
       <c r="X30" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y30" s="150"/>
       <c r="Z30" s="150"/>
       <c r="AA30" s="151"/>
       <c r="AB30" s="208" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AC30" s="209"/>
       <c r="AD30" s="209"/>
       <c r="AE30" s="210"/>
       <c r="AF30" s="156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG30" s="157"/>
       <c r="AH30" s="157"/>
@@ -27483,7 +27653,7 @@
       </c>
       <c r="AR30" s="160"/>
       <c r="AS30" s="161" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AT30" s="162"/>
       <c r="AU30" s="162"/>
@@ -27501,7 +27671,7 @@
     <row r="31" spans="2:57" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D31" s="150"/>
       <c r="E31" s="150"/>
@@ -27526,7 +27696,7 @@
       <c r="V31" s="150"/>
       <c r="W31" s="151"/>
       <c r="X31" s="152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y31" s="150"/>
       <c r="Z31" s="150"/>
@@ -27538,7 +27708,7 @@
       <c r="AD31" s="209"/>
       <c r="AE31" s="210"/>
       <c r="AF31" s="156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG31" s="157"/>
       <c r="AH31" s="157"/>
@@ -27555,7 +27725,7 @@
       </c>
       <c r="AR31" s="160"/>
       <c r="AS31" s="161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AT31" s="162"/>
       <c r="AU31" s="162"/>
@@ -27573,7 +27743,7 @@
     <row r="32" spans="2:57" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="149" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
@@ -27585,7 +27755,7 @@
       <c r="K32" s="150"/>
       <c r="L32" s="151"/>
       <c r="M32" s="152" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N32" s="150"/>
       <c r="O32" s="150"/>
@@ -27598,7 +27768,7 @@
       <c r="V32" s="150"/>
       <c r="W32" s="151"/>
       <c r="X32" s="152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y32" s="150"/>
       <c r="Z32" s="150"/>
@@ -27610,7 +27780,7 @@
       <c r="AD32" s="209"/>
       <c r="AE32" s="210"/>
       <c r="AF32" s="156" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG32" s="157"/>
       <c r="AH32" s="157"/>
@@ -27627,7 +27797,7 @@
       </c>
       <c r="AR32" s="160"/>
       <c r="AS32" s="161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AT32" s="162"/>
       <c r="AU32" s="162"/>
@@ -27645,7 +27815,7 @@
     <row r="33" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="149" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D33" s="150"/>
       <c r="E33" s="150"/>
@@ -27657,7 +27827,7 @@
       <c r="K33" s="150"/>
       <c r="L33" s="151"/>
       <c r="M33" s="152" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N33" s="150"/>
       <c r="O33" s="150"/>
@@ -27670,7 +27840,7 @@
       <c r="V33" s="150"/>
       <c r="W33" s="151"/>
       <c r="X33" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y33" s="150"/>
       <c r="Z33" s="150"/>
@@ -27680,7 +27850,7 @@
       <c r="AD33" s="209"/>
       <c r="AE33" s="210"/>
       <c r="AF33" s="156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG33" s="157"/>
       <c r="AH33" s="157"/>
@@ -27713,7 +27883,7 @@
     <row r="34" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="149" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D34" s="150"/>
       <c r="E34" s="150"/>
@@ -27725,7 +27895,7 @@
       <c r="K34" s="150"/>
       <c r="L34" s="151"/>
       <c r="M34" s="152" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N34" s="150"/>
       <c r="O34" s="150"/>
@@ -27750,7 +27920,7 @@
       <c r="AD34" s="209"/>
       <c r="AE34" s="210"/>
       <c r="AF34" s="156" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG34" s="157"/>
       <c r="AH34" s="157"/>
@@ -27783,7 +27953,7 @@
     <row r="35" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="149" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D35" s="150"/>
       <c r="E35" s="150"/>
@@ -27795,7 +27965,7 @@
       <c r="K35" s="150"/>
       <c r="L35" s="151"/>
       <c r="M35" s="152" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N35" s="150"/>
       <c r="O35" s="150"/>
@@ -27808,19 +27978,19 @@
       <c r="V35" s="150"/>
       <c r="W35" s="151"/>
       <c r="X35" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y35" s="150"/>
       <c r="Z35" s="150"/>
       <c r="AA35" s="151"/>
       <c r="AB35" s="208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AC35" s="209"/>
       <c r="AD35" s="209"/>
       <c r="AE35" s="210"/>
       <c r="AF35" s="156" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG35" s="157"/>
       <c r="AH35" s="157"/>
@@ -27853,7 +28023,7 @@
     <row r="36" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="149" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D36" s="150"/>
       <c r="E36" s="150"/>
@@ -27865,7 +28035,7 @@
       <c r="K36" s="150"/>
       <c r="L36" s="151"/>
       <c r="M36" s="152" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N36" s="150"/>
       <c r="O36" s="150"/>
@@ -27890,7 +28060,7 @@
       <c r="AD36" s="209"/>
       <c r="AE36" s="210"/>
       <c r="AF36" s="156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG36" s="157"/>
       <c r="AH36" s="157"/>
@@ -27923,7 +28093,7 @@
     <row r="37" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="149" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -27935,7 +28105,7 @@
       <c r="K37" s="150"/>
       <c r="L37" s="151"/>
       <c r="M37" s="152" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N37" s="150"/>
       <c r="O37" s="150"/>
@@ -27948,19 +28118,19 @@
       <c r="V37" s="150"/>
       <c r="W37" s="151"/>
       <c r="X37" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y37" s="150"/>
       <c r="Z37" s="150"/>
       <c r="AA37" s="151"/>
       <c r="AB37" s="208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AC37" s="209"/>
       <c r="AD37" s="209"/>
       <c r="AE37" s="210"/>
       <c r="AF37" s="156" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG37" s="157"/>
       <c r="AH37" s="157"/>
@@ -27993,7 +28163,7 @@
     <row r="38" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D38" s="150"/>
       <c r="E38" s="150"/>
@@ -28005,7 +28175,7 @@
       <c r="K38" s="150"/>
       <c r="L38" s="151"/>
       <c r="M38" s="152" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N38" s="150"/>
       <c r="O38" s="150"/>
@@ -28018,19 +28188,19 @@
       <c r="V38" s="150"/>
       <c r="W38" s="151"/>
       <c r="X38" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y38" s="150"/>
       <c r="Z38" s="150"/>
       <c r="AA38" s="151"/>
       <c r="AB38" s="208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AC38" s="209"/>
       <c r="AD38" s="209"/>
       <c r="AE38" s="210"/>
       <c r="AF38" s="156" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG38" s="157"/>
       <c r="AH38" s="157"/>
@@ -28063,7 +28233,7 @@
     <row r="39" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D39" s="150"/>
       <c r="E39" s="150"/>
@@ -28075,7 +28245,7 @@
       <c r="K39" s="150"/>
       <c r="L39" s="151"/>
       <c r="M39" s="152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N39" s="150"/>
       <c r="O39" s="150"/>
@@ -28088,19 +28258,19 @@
       <c r="V39" s="150"/>
       <c r="W39" s="151"/>
       <c r="X39" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y39" s="150"/>
       <c r="Z39" s="150"/>
       <c r="AA39" s="151"/>
       <c r="AB39" s="208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AC39" s="209"/>
       <c r="AD39" s="209"/>
       <c r="AE39" s="210"/>
       <c r="AF39" s="156" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG39" s="157"/>
       <c r="AH39" s="157"/>
@@ -28133,7 +28303,7 @@
     <row r="40" spans="2:92" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D40" s="150"/>
       <c r="E40" s="150"/>
@@ -28145,7 +28315,7 @@
       <c r="K40" s="150"/>
       <c r="L40" s="151"/>
       <c r="M40" s="152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N40" s="150"/>
       <c r="O40" s="150"/>
@@ -28158,19 +28328,19 @@
       <c r="V40" s="150"/>
       <c r="W40" s="151"/>
       <c r="X40" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y40" s="150"/>
       <c r="Z40" s="150"/>
       <c r="AA40" s="151"/>
       <c r="AB40" s="208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AC40" s="209"/>
       <c r="AD40" s="209"/>
       <c r="AE40" s="210"/>
       <c r="AF40" s="156" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG40" s="157"/>
       <c r="AH40" s="157"/>
@@ -28319,7 +28489,7 @@
     <row r="43" spans="2:92" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
       <c r="C43" s="214" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D43" s="214"/>
       <c r="E43" s="214"/>
@@ -30263,7 +30433,7 @@
     </row>
     <row r="79" spans="2:92" x14ac:dyDescent="0.15">
       <c r="B79" s="211" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C79" s="211"/>
       <c r="D79" s="211"/>
@@ -30431,7 +30601,7 @@
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B84" s="211" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="211"/>
@@ -30565,7 +30735,7 @@
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B88" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C88" s="148"/>
       <c r="D88" s="148"/>
@@ -30859,7 +31029,7 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.15">
       <c r="B3" s="113" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="114"/>
@@ -30925,7 +31095,7 @@
     </row>
     <row r="4" spans="1:63" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -30991,12 +31161,12 @@
     </row>
     <row r="6" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="283" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="284"/>
       <c r="D6" s="285"/>
       <c r="E6" s="170" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F6" s="171"/>
       <c r="G6" s="171"/>
@@ -31588,7 +31758,7 @@
       </c>
       <c r="AX14" s="244"/>
       <c r="AY14" s="230" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AZ14" s="231"/>
       <c r="BA14" s="231"/>
@@ -31606,7 +31776,7 @@
     <row r="15" spans="1:63" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="221"/>
       <c r="E15" s="221"/>
@@ -31615,7 +31785,7 @@
       <c r="H15" s="221"/>
       <c r="I15" s="222"/>
       <c r="J15" s="223" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K15" s="221"/>
       <c r="L15" s="221"/>
@@ -31640,13 +31810,13 @@
       <c r="AC15" s="221"/>
       <c r="AD15" s="222"/>
       <c r="AE15" s="253" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF15" s="254"/>
       <c r="AG15" s="254"/>
       <c r="AH15" s="255"/>
       <c r="AI15" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ15" s="157"/>
       <c r="AK15" s="157"/>
@@ -31682,7 +31852,7 @@
     <row r="16" spans="1:63" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="225"/>
       <c r="E16" s="225"/>
@@ -31691,7 +31861,7 @@
       <c r="H16" s="225"/>
       <c r="I16" s="226"/>
       <c r="J16" s="227" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K16" s="225"/>
       <c r="L16" s="225"/>
@@ -31716,13 +31886,13 @@
       <c r="AC16" s="225"/>
       <c r="AD16" s="226"/>
       <c r="AE16" s="253" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF16" s="254"/>
       <c r="AG16" s="254"/>
       <c r="AH16" s="255"/>
       <c r="AI16" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ16" s="157"/>
       <c r="AK16" s="157"/>
@@ -31758,7 +31928,7 @@
     <row r="17" spans="2:63" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="224" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D17" s="225"/>
       <c r="E17" s="225"/>
@@ -31767,7 +31937,7 @@
       <c r="H17" s="225"/>
       <c r="I17" s="226"/>
       <c r="J17" s="227" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K17" s="225"/>
       <c r="L17" s="225"/>
@@ -31792,13 +31962,13 @@
       <c r="AC17" s="225"/>
       <c r="AD17" s="226"/>
       <c r="AE17" s="253" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF17" s="254"/>
       <c r="AG17" s="254"/>
       <c r="AH17" s="255"/>
       <c r="AI17" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ17" s="157"/>
       <c r="AK17" s="157"/>
@@ -31834,7 +32004,7 @@
     <row r="18" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="149" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D18" s="150"/>
       <c r="E18" s="150"/>
@@ -31843,7 +32013,7 @@
       <c r="H18" s="150"/>
       <c r="I18" s="151"/>
       <c r="J18" s="152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K18" s="150"/>
       <c r="L18" s="150"/>
@@ -31861,7 +32031,7 @@
       <c r="X18" s="122"/>
       <c r="Y18" s="122"/>
       <c r="Z18" s="152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AA18" s="150"/>
       <c r="AB18" s="150"/>
@@ -31894,7 +32064,7 @@
       </c>
       <c r="AX18" s="160"/>
       <c r="AY18" s="161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AZ18" s="162"/>
       <c r="BA18" s="162"/>
@@ -31912,7 +32082,7 @@
     <row r="19" spans="2:63" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="149" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D19" s="150"/>
       <c r="E19" s="150"/>
@@ -31921,7 +32091,7 @@
       <c r="H19" s="150"/>
       <c r="I19" s="151"/>
       <c r="J19" s="152" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K19" s="150"/>
       <c r="L19" s="150"/>
@@ -31988,7 +32158,7 @@
     <row r="20" spans="2:63" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="149" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D20" s="150"/>
       <c r="E20" s="150"/>
@@ -31997,7 +32167,7 @@
       <c r="H20" s="150"/>
       <c r="I20" s="151"/>
       <c r="J20" s="152" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K20" s="150"/>
       <c r="L20" s="150"/>
@@ -32022,13 +32192,13 @@
       <c r="AC20" s="225"/>
       <c r="AD20" s="226"/>
       <c r="AE20" s="253" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF20" s="254"/>
       <c r="AG20" s="254"/>
       <c r="AH20" s="255"/>
       <c r="AI20" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ20" s="157"/>
       <c r="AK20" s="157"/>
@@ -32064,7 +32234,7 @@
     <row r="21" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="149" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D21" s="150"/>
       <c r="E21" s="150"/>
@@ -32073,7 +32243,7 @@
       <c r="H21" s="150"/>
       <c r="I21" s="151"/>
       <c r="J21" s="152" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K21" s="150"/>
       <c r="L21" s="150"/>
@@ -32091,20 +32261,20 @@
       <c r="X21" s="122"/>
       <c r="Y21" s="122"/>
       <c r="Z21" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA21" s="150"/>
       <c r="AB21" s="150"/>
       <c r="AC21" s="150"/>
       <c r="AD21" s="151"/>
       <c r="AE21" s="153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AF21" s="154"/>
       <c r="AG21" s="154"/>
       <c r="AH21" s="155"/>
       <c r="AI21" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ21" s="157"/>
       <c r="AK21" s="157"/>
@@ -32140,7 +32310,7 @@
     <row r="22" spans="2:63" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="149" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D22" s="150"/>
       <c r="E22" s="150"/>
@@ -32167,7 +32337,7 @@
       <c r="X22" s="122"/>
       <c r="Y22" s="122"/>
       <c r="Z22" s="152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AA22" s="150"/>
       <c r="AB22" s="150"/>
@@ -32922,7 +33092,7 @@
     <row r="33" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D33" s="150"/>
       <c r="E33" s="150"/>
@@ -32937,7 +33107,7 @@
       <c r="N33" s="150"/>
       <c r="O33" s="151"/>
       <c r="P33" s="152" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q33" s="150"/>
       <c r="R33" s="150"/>
@@ -32965,7 +33135,7 @@
       <c r="AJ33" s="209"/>
       <c r="AK33" s="210"/>
       <c r="AL33" s="156" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM33" s="157"/>
       <c r="AN33" s="157"/>
@@ -32998,7 +33168,7 @@
     <row r="34" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D34" s="150"/>
       <c r="E34" s="150"/>
@@ -33013,7 +33183,7 @@
       <c r="N34" s="150"/>
       <c r="O34" s="151"/>
       <c r="P34" s="152" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="150"/>
       <c r="R34" s="150"/>
@@ -33041,7 +33211,7 @@
       <c r="AJ34" s="209"/>
       <c r="AK34" s="210"/>
       <c r="AL34" s="156" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM34" s="157"/>
       <c r="AN34" s="157"/>
@@ -33074,7 +33244,7 @@
     <row r="35" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="149" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D35" s="150"/>
       <c r="E35" s="150"/>
@@ -33089,7 +33259,7 @@
       <c r="N35" s="150"/>
       <c r="O35" s="151"/>
       <c r="P35" s="152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="150"/>
       <c r="R35" s="150"/>
@@ -33117,7 +33287,7 @@
       <c r="AJ35" s="209"/>
       <c r="AK35" s="210"/>
       <c r="AL35" s="156" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AM35" s="157"/>
       <c r="AN35" s="157"/>
@@ -33150,7 +33320,7 @@
     <row r="36" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D36" s="150"/>
       <c r="E36" s="150"/>
@@ -33165,7 +33335,7 @@
       <c r="N36" s="150"/>
       <c r="O36" s="151"/>
       <c r="P36" s="152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="150"/>
       <c r="R36" s="150"/>
@@ -33193,7 +33363,7 @@
       <c r="AJ36" s="209"/>
       <c r="AK36" s="210"/>
       <c r="AL36" s="156" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM36" s="157"/>
       <c r="AN36" s="157"/>
@@ -33226,7 +33396,7 @@
     <row r="37" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -33241,7 +33411,7 @@
       <c r="N37" s="150"/>
       <c r="O37" s="151"/>
       <c r="P37" s="152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="150"/>
       <c r="R37" s="150"/>
@@ -33269,7 +33439,7 @@
       <c r="AJ37" s="209"/>
       <c r="AK37" s="210"/>
       <c r="AL37" s="156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM37" s="157"/>
       <c r="AN37" s="157"/>
@@ -33302,7 +33472,7 @@
     <row r="38" spans="2:63" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="149" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D38" s="150"/>
       <c r="E38" s="150"/>
@@ -33317,7 +33487,7 @@
       <c r="N38" s="150"/>
       <c r="O38" s="151"/>
       <c r="P38" s="152" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="150"/>
       <c r="R38" s="150"/>
@@ -33333,19 +33503,19 @@
       <c r="AB38" s="150"/>
       <c r="AC38" s="151"/>
       <c r="AD38" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE38" s="150"/>
       <c r="AF38" s="150"/>
       <c r="AG38" s="151"/>
       <c r="AH38" s="153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI38" s="154"/>
       <c r="AJ38" s="154"/>
       <c r="AK38" s="155"/>
       <c r="AL38" s="156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AM38" s="157"/>
       <c r="AN38" s="157"/>
@@ -33378,7 +33548,7 @@
     <row r="39" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D39" s="150"/>
       <c r="E39" s="150"/>
@@ -33409,7 +33579,7 @@
       <c r="AB39" s="150"/>
       <c r="AC39" s="151"/>
       <c r="AD39" s="152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AE39" s="150"/>
       <c r="AF39" s="150"/>
@@ -33421,7 +33591,7 @@
       <c r="AJ39" s="209"/>
       <c r="AK39" s="210"/>
       <c r="AL39" s="156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM39" s="157"/>
       <c r="AN39" s="157"/>
@@ -33438,7 +33608,7 @@
       </c>
       <c r="AX39" s="160"/>
       <c r="AY39" s="161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AZ39" s="162"/>
       <c r="BA39" s="162"/>
@@ -33456,7 +33626,7 @@
     <row r="40" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="149" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D40" s="150"/>
       <c r="E40" s="150"/>
@@ -33471,7 +33641,7 @@
       <c r="N40" s="150"/>
       <c r="O40" s="151"/>
       <c r="P40" s="152" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q40" s="150"/>
       <c r="R40" s="150"/>
@@ -33487,7 +33657,7 @@
       <c r="AB40" s="150"/>
       <c r="AC40" s="151"/>
       <c r="AD40" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE40" s="150"/>
       <c r="AF40" s="150"/>
@@ -33497,7 +33667,7 @@
       <c r="AJ40" s="209"/>
       <c r="AK40" s="210"/>
       <c r="AL40" s="156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AM40" s="157"/>
       <c r="AN40" s="157"/>
@@ -33530,7 +33700,7 @@
     <row r="41" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="149" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
@@ -33545,7 +33715,7 @@
       <c r="N41" s="150"/>
       <c r="O41" s="151"/>
       <c r="P41" s="152" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q41" s="150"/>
       <c r="R41" s="150"/>
@@ -33573,7 +33743,7 @@
       <c r="AJ41" s="209"/>
       <c r="AK41" s="210"/>
       <c r="AL41" s="156" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AM41" s="157"/>
       <c r="AN41" s="157"/>
@@ -33606,7 +33776,7 @@
     <row r="42" spans="2:63" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
       <c r="C42" s="149" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
@@ -33621,7 +33791,7 @@
       <c r="N42" s="150"/>
       <c r="O42" s="151"/>
       <c r="P42" s="152" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q42" s="150"/>
       <c r="R42" s="150"/>
@@ -33637,19 +33807,19 @@
       <c r="AB42" s="150"/>
       <c r="AC42" s="151"/>
       <c r="AD42" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE42" s="150"/>
       <c r="AF42" s="150"/>
       <c r="AG42" s="151"/>
       <c r="AH42" s="153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI42" s="154"/>
       <c r="AJ42" s="154"/>
       <c r="AK42" s="155"/>
       <c r="AL42" s="156" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM42" s="157"/>
       <c r="AN42" s="157"/>
@@ -33682,7 +33852,7 @@
     <row r="43" spans="2:63" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="149" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D43" s="150"/>
       <c r="E43" s="150"/>
@@ -33697,7 +33867,7 @@
       <c r="N43" s="150"/>
       <c r="O43" s="151"/>
       <c r="P43" s="152" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q43" s="150"/>
       <c r="R43" s="150"/>
@@ -33725,7 +33895,7 @@
       <c r="AJ43" s="209"/>
       <c r="AK43" s="210"/>
       <c r="AL43" s="156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AM43" s="157"/>
       <c r="AN43" s="157"/>
@@ -33758,7 +33928,7 @@
     <row r="44" spans="2:63" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="149" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D44" s="150"/>
       <c r="E44" s="150"/>
@@ -33773,7 +33943,7 @@
       <c r="N44" s="150"/>
       <c r="O44" s="151"/>
       <c r="P44" s="152" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q44" s="150"/>
       <c r="R44" s="150"/>
@@ -33789,19 +33959,19 @@
       <c r="AB44" s="150"/>
       <c r="AC44" s="151"/>
       <c r="AD44" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE44" s="150"/>
       <c r="AF44" s="150"/>
       <c r="AG44" s="151"/>
       <c r="AH44" s="153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI44" s="154"/>
       <c r="AJ44" s="154"/>
       <c r="AK44" s="155"/>
       <c r="AL44" s="156" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM44" s="157"/>
       <c r="AN44" s="157"/>
@@ -33834,7 +34004,7 @@
     <row r="45" spans="2:63" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
       <c r="C45" s="149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D45" s="150"/>
       <c r="E45" s="150"/>
@@ -33849,7 +34019,7 @@
       <c r="N45" s="150"/>
       <c r="O45" s="151"/>
       <c r="P45" s="152" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q45" s="150"/>
       <c r="R45" s="150"/>
@@ -33865,19 +34035,19 @@
       <c r="AB45" s="150"/>
       <c r="AC45" s="151"/>
       <c r="AD45" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE45" s="150"/>
       <c r="AF45" s="150"/>
       <c r="AG45" s="151"/>
       <c r="AH45" s="153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI45" s="154"/>
       <c r="AJ45" s="154"/>
       <c r="AK45" s="155"/>
       <c r="AL45" s="156" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM45" s="157"/>
       <c r="AN45" s="157"/>
@@ -33910,7 +34080,7 @@
     <row r="46" spans="2:63" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
       <c r="C46" s="149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D46" s="150"/>
       <c r="E46" s="150"/>
@@ -33925,7 +34095,7 @@
       <c r="N46" s="150"/>
       <c r="O46" s="151"/>
       <c r="P46" s="152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q46" s="150"/>
       <c r="R46" s="150"/>
@@ -33941,19 +34111,19 @@
       <c r="AB46" s="150"/>
       <c r="AC46" s="151"/>
       <c r="AD46" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE46" s="150"/>
       <c r="AF46" s="150"/>
       <c r="AG46" s="151"/>
       <c r="AH46" s="153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI46" s="154"/>
       <c r="AJ46" s="154"/>
       <c r="AK46" s="155"/>
       <c r="AL46" s="156" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM46" s="157"/>
       <c r="AN46" s="157"/>
@@ -33986,7 +34156,7 @@
     <row r="47" spans="2:63" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
       <c r="C47" s="149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D47" s="150"/>
       <c r="E47" s="150"/>
@@ -34001,7 +34171,7 @@
       <c r="N47" s="150"/>
       <c r="O47" s="151"/>
       <c r="P47" s="152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q47" s="150"/>
       <c r="R47" s="150"/>
@@ -34017,19 +34187,19 @@
       <c r="AB47" s="150"/>
       <c r="AC47" s="151"/>
       <c r="AD47" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE47" s="150"/>
       <c r="AF47" s="150"/>
       <c r="AG47" s="151"/>
       <c r="AH47" s="153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI47" s="154"/>
       <c r="AJ47" s="154"/>
       <c r="AK47" s="155"/>
       <c r="AL47" s="156" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM47" s="157"/>
       <c r="AN47" s="157"/>
@@ -34190,7 +34360,7 @@
     <row r="50" spans="2:98" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="10"/>
       <c r="C50" s="214" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D50" s="214"/>
       <c r="E50" s="214"/>
@@ -36268,7 +36438,7 @@
     </row>
     <row r="85" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B85" s="256" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C85" s="257"/>
       <c r="D85" s="257"/>
@@ -36414,7 +36584,7 @@
     </row>
     <row r="89" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B89" s="268" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C89" s="269"/>
       <c r="D89" s="269"/>
@@ -36451,7 +36621,7 @@
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B90" s="256" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C90" s="257"/>
       <c r="D90" s="257"/>
@@ -36597,7 +36767,7 @@
     </row>
     <row r="94" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B94" s="268" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C94" s="269"/>
       <c r="D94" s="269"/>
@@ -36634,7 +36804,7 @@
     </row>
     <row r="95" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B95" s="256" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C95" s="257"/>
       <c r="D95" s="257"/>
@@ -36780,7 +36950,7 @@
     </row>
     <row r="99" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B99" s="268" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C99" s="269"/>
       <c r="D99" s="269"/>
@@ -36817,7 +36987,7 @@
     </row>
     <row r="100" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B100" s="256" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C100" s="257"/>
       <c r="D100" s="257"/>
@@ -37000,7 +37170,7 @@
     </row>
     <row r="105" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B105" s="256" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C105" s="257"/>
       <c r="D105" s="257"/>
@@ -37146,7 +37316,7 @@
     </row>
     <row r="109" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B109" s="268" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C109" s="269"/>
       <c r="D109" s="269"/>
@@ -37462,9 +37632,7 @@
   </sheetPr>
   <dimension ref="A1:CM91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -37504,7 +37672,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.15">
       <c r="B3" s="115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C3" s="116"/>
       <c r="D3" s="116"/>
@@ -37563,7 +37731,7 @@
     </row>
     <row r="4" spans="1:56" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -37622,12 +37790,12 @@
     </row>
     <row r="6" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="289" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C6" s="290"/>
       <c r="D6" s="291"/>
       <c r="E6" s="170" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F6" s="171"/>
       <c r="G6" s="171"/>
@@ -37857,7 +38025,7 @@
     <row r="10" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="176" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D10" s="176"/>
       <c r="E10" s="176"/>
@@ -38156,7 +38324,7 @@
       </c>
       <c r="AQ14" s="244"/>
       <c r="AR14" s="230" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AS14" s="231"/>
       <c r="AT14" s="231"/>
@@ -38810,7 +38978,7 @@
     <row r="25" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D25" s="150"/>
       <c r="E25" s="150"/>
@@ -38822,7 +38990,7 @@
       <c r="K25" s="150"/>
       <c r="L25" s="151"/>
       <c r="M25" s="152" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N25" s="150"/>
       <c r="O25" s="150"/>
@@ -38846,7 +39014,7 @@
       <c r="AC25" s="209"/>
       <c r="AD25" s="210"/>
       <c r="AE25" s="156" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF25" s="157"/>
       <c r="AG25" s="157"/>
@@ -38879,7 +39047,7 @@
     <row r="26" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D26" s="150"/>
       <c r="E26" s="150"/>
@@ -38891,7 +39059,7 @@
       <c r="K26" s="150"/>
       <c r="L26" s="151"/>
       <c r="M26" s="152" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N26" s="150"/>
       <c r="O26" s="150"/>
@@ -38915,7 +39083,7 @@
       <c r="AC26" s="209"/>
       <c r="AD26" s="210"/>
       <c r="AE26" s="156" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF26" s="157"/>
       <c r="AG26" s="157"/>
@@ -38948,7 +39116,7 @@
     <row r="27" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="149" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D27" s="150"/>
       <c r="E27" s="150"/>
@@ -38960,7 +39128,7 @@
       <c r="K27" s="150"/>
       <c r="L27" s="151"/>
       <c r="M27" s="152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="150"/>
@@ -38984,7 +39152,7 @@
       <c r="AC27" s="209"/>
       <c r="AD27" s="210"/>
       <c r="AE27" s="156" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF27" s="157"/>
       <c r="AG27" s="157"/>
@@ -39017,7 +39185,7 @@
     <row r="28" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D28" s="150"/>
       <c r="E28" s="150"/>
@@ -39029,7 +39197,7 @@
       <c r="K28" s="150"/>
       <c r="L28" s="151"/>
       <c r="M28" s="152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N28" s="150"/>
       <c r="O28" s="150"/>
@@ -39053,7 +39221,7 @@
       <c r="AC28" s="209"/>
       <c r="AD28" s="210"/>
       <c r="AE28" s="156" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF28" s="157"/>
       <c r="AG28" s="157"/>
@@ -39086,7 +39254,7 @@
     <row r="29" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D29" s="150"/>
       <c r="E29" s="150"/>
@@ -39098,7 +39266,7 @@
       <c r="K29" s="150"/>
       <c r="L29" s="151"/>
       <c r="M29" s="152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N29" s="150"/>
       <c r="O29" s="150"/>
@@ -39122,7 +39290,7 @@
       <c r="AC29" s="209"/>
       <c r="AD29" s="210"/>
       <c r="AE29" s="156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF29" s="157"/>
       <c r="AG29" s="157"/>
@@ -39139,7 +39307,7 @@
       </c>
       <c r="AQ29" s="160"/>
       <c r="AR29" s="161" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AS29" s="162"/>
       <c r="AT29" s="162"/>
@@ -39157,7 +39325,7 @@
     <row r="30" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="149" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D30" s="150"/>
       <c r="E30" s="150"/>
@@ -39169,7 +39337,7 @@
       <c r="K30" s="150"/>
       <c r="L30" s="151"/>
       <c r="M30" s="152" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N30" s="150"/>
       <c r="O30" s="150"/>
@@ -39181,19 +39349,19 @@
       <c r="U30" s="150"/>
       <c r="V30" s="151"/>
       <c r="W30" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X30" s="150"/>
       <c r="Y30" s="150"/>
       <c r="Z30" s="151"/>
       <c r="AA30" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB30" s="209"/>
       <c r="AC30" s="209"/>
       <c r="AD30" s="210"/>
       <c r="AE30" s="156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF30" s="157"/>
       <c r="AG30" s="157"/>
@@ -39210,7 +39378,7 @@
       </c>
       <c r="AQ30" s="160"/>
       <c r="AR30" s="161" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AS30" s="162"/>
       <c r="AT30" s="162"/>
@@ -39228,7 +39396,7 @@
     <row r="31" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D31" s="150"/>
       <c r="E31" s="150"/>
@@ -39252,7 +39420,7 @@
       <c r="U31" s="150"/>
       <c r="V31" s="151"/>
       <c r="W31" s="152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X31" s="150"/>
       <c r="Y31" s="150"/>
@@ -39264,7 +39432,7 @@
       <c r="AC31" s="209"/>
       <c r="AD31" s="210"/>
       <c r="AE31" s="156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AF31" s="157"/>
       <c r="AG31" s="157"/>
@@ -39281,7 +39449,7 @@
       </c>
       <c r="AQ31" s="160"/>
       <c r="AR31" s="161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AS31" s="162"/>
       <c r="AT31" s="162"/>
@@ -39299,7 +39467,7 @@
     <row r="32" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="149" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
@@ -39311,7 +39479,7 @@
       <c r="K32" s="150"/>
       <c r="L32" s="151"/>
       <c r="M32" s="152" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N32" s="150"/>
       <c r="O32" s="150"/>
@@ -39323,7 +39491,7 @@
       <c r="U32" s="150"/>
       <c r="V32" s="151"/>
       <c r="W32" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X32" s="150"/>
       <c r="Y32" s="150"/>
@@ -39333,7 +39501,7 @@
       <c r="AC32" s="209"/>
       <c r="AD32" s="210"/>
       <c r="AE32" s="156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF32" s="157"/>
       <c r="AG32" s="157"/>
@@ -39366,7 +39534,7 @@
     <row r="33" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="149" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" s="150"/>
       <c r="E33" s="150"/>
@@ -39378,7 +39546,7 @@
       <c r="K33" s="150"/>
       <c r="L33" s="151"/>
       <c r="M33" s="152" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N33" s="150"/>
       <c r="O33" s="150"/>
@@ -39402,7 +39570,7 @@
       <c r="AC33" s="209"/>
       <c r="AD33" s="210"/>
       <c r="AE33" s="156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF33" s="157"/>
       <c r="AG33" s="157"/>
@@ -39435,7 +39603,7 @@
     <row r="34" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="149" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D34" s="150"/>
       <c r="E34" s="150"/>
@@ -39447,7 +39615,7 @@
       <c r="K34" s="150"/>
       <c r="L34" s="151"/>
       <c r="M34" s="152" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N34" s="150"/>
       <c r="O34" s="150"/>
@@ -39459,19 +39627,19 @@
       <c r="U34" s="150"/>
       <c r="V34" s="151"/>
       <c r="W34" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X34" s="150"/>
       <c r="Y34" s="150"/>
       <c r="Z34" s="151"/>
       <c r="AA34" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB34" s="209"/>
       <c r="AC34" s="209"/>
       <c r="AD34" s="210"/>
       <c r="AE34" s="156" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF34" s="157"/>
       <c r="AG34" s="157"/>
@@ -39504,7 +39672,7 @@
     <row r="35" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D35" s="150"/>
       <c r="E35" s="150"/>
@@ -39516,7 +39684,7 @@
       <c r="K35" s="150"/>
       <c r="L35" s="151"/>
       <c r="M35" s="152" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N35" s="150"/>
       <c r="O35" s="150"/>
@@ -39528,7 +39696,7 @@
       <c r="U35" s="150"/>
       <c r="V35" s="151"/>
       <c r="W35" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X35" s="150"/>
       <c r="Y35" s="150"/>
@@ -39538,7 +39706,7 @@
       <c r="AC35" s="209"/>
       <c r="AD35" s="210"/>
       <c r="AE35" s="156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF35" s="157"/>
       <c r="AG35" s="157"/>
@@ -39571,7 +39739,7 @@
     <row r="36" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D36" s="150"/>
       <c r="E36" s="150"/>
@@ -39583,7 +39751,7 @@
       <c r="K36" s="150"/>
       <c r="L36" s="151"/>
       <c r="M36" s="152" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N36" s="150"/>
       <c r="O36" s="150"/>
@@ -39595,19 +39763,19 @@
       <c r="U36" s="150"/>
       <c r="V36" s="151"/>
       <c r="W36" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X36" s="150"/>
       <c r="Y36" s="150"/>
       <c r="Z36" s="151"/>
       <c r="AA36" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB36" s="209"/>
       <c r="AC36" s="209"/>
       <c r="AD36" s="210"/>
       <c r="AE36" s="156" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF36" s="157"/>
       <c r="AG36" s="157"/>
@@ -39640,7 +39808,7 @@
     <row r="37" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -39652,7 +39820,7 @@
       <c r="K37" s="150"/>
       <c r="L37" s="151"/>
       <c r="M37" s="152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N37" s="150"/>
       <c r="O37" s="150"/>
@@ -39664,19 +39832,19 @@
       <c r="U37" s="150"/>
       <c r="V37" s="151"/>
       <c r="W37" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X37" s="150"/>
       <c r="Y37" s="150"/>
       <c r="Z37" s="151"/>
       <c r="AA37" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB37" s="209"/>
       <c r="AC37" s="209"/>
       <c r="AD37" s="210"/>
       <c r="AE37" s="156" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF37" s="157"/>
       <c r="AG37" s="157"/>
@@ -39709,7 +39877,7 @@
     <row r="38" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D38" s="150"/>
       <c r="E38" s="150"/>
@@ -39721,7 +39889,7 @@
       <c r="K38" s="150"/>
       <c r="L38" s="151"/>
       <c r="M38" s="152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N38" s="150"/>
       <c r="O38" s="150"/>
@@ -39733,19 +39901,19 @@
       <c r="U38" s="150"/>
       <c r="V38" s="151"/>
       <c r="W38" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X38" s="150"/>
       <c r="Y38" s="150"/>
       <c r="Z38" s="151"/>
       <c r="AA38" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB38" s="209"/>
       <c r="AC38" s="209"/>
       <c r="AD38" s="210"/>
       <c r="AE38" s="156" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF38" s="157"/>
       <c r="AG38" s="157"/>
@@ -39778,7 +39946,7 @@
     <row r="39" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="149" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D39" s="150"/>
       <c r="E39" s="150"/>
@@ -39790,7 +39958,7 @@
       <c r="K39" s="150"/>
       <c r="L39" s="151"/>
       <c r="M39" s="152" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N39" s="150"/>
       <c r="O39" s="150"/>
@@ -39802,19 +39970,19 @@
       <c r="U39" s="150"/>
       <c r="V39" s="151"/>
       <c r="W39" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X39" s="150"/>
       <c r="Y39" s="150"/>
       <c r="Z39" s="151"/>
       <c r="AA39" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB39" s="209"/>
       <c r="AC39" s="209"/>
       <c r="AD39" s="210"/>
       <c r="AE39" s="156" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF39" s="157"/>
       <c r="AG39" s="157"/>
@@ -39831,7 +39999,7 @@
       </c>
       <c r="AQ39" s="160"/>
       <c r="AR39" s="161" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AS39" s="162"/>
       <c r="AT39" s="162"/>
@@ -39963,7 +40131,7 @@
     <row r="42" spans="2:91" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
       <c r="C42" s="214" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D42" s="214"/>
       <c r="E42" s="214"/>
@@ -41810,7 +41978,7 @@
     </row>
     <row r="77" spans="2:91" x14ac:dyDescent="0.15">
       <c r="B77" s="256" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C77" s="257"/>
       <c r="D77" s="257"/>
@@ -41928,7 +42096,7 @@
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B81" s="268" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C81" s="269"/>
       <c r="D81" s="269"/>
@@ -41958,7 +42126,7 @@
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="256" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C82" s="257"/>
       <c r="D82" s="257"/>
@@ -42106,7 +42274,7 @@
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="256" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C87" s="257"/>
       <c r="D87" s="257"/>
@@ -42224,7 +42392,7 @@
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B91" s="268" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C91" s="269"/>
       <c r="D91" s="269"/>
@@ -42511,7 +42679,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.15">
       <c r="B3" s="102" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
@@ -42570,7 +42738,7 @@
     </row>
     <row r="4" spans="1:56" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -42634,7 +42802,7 @@
       <c r="C6" s="246"/>
       <c r="D6" s="247"/>
       <c r="E6" s="170" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F6" s="171"/>
       <c r="G6" s="171"/>
@@ -42864,7 +43032,7 @@
     <row r="10" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D10" s="176"/>
       <c r="E10" s="176"/>
@@ -43163,7 +43331,7 @@
       </c>
       <c r="AQ14" s="244"/>
       <c r="AR14" s="230" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AS14" s="231"/>
       <c r="AT14" s="231"/>
@@ -43181,7 +43349,7 @@
     <row r="15" spans="1:56" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="149" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D15" s="150"/>
       <c r="E15" s="150"/>
@@ -43190,7 +43358,7 @@
       <c r="H15" s="150"/>
       <c r="I15" s="151"/>
       <c r="J15" s="152" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K15" s="150"/>
       <c r="L15" s="150"/>
@@ -43234,7 +43402,7 @@
       </c>
       <c r="AQ15" s="160"/>
       <c r="AR15" s="295" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AS15" s="162"/>
       <c r="AT15" s="162"/>
@@ -43252,7 +43420,7 @@
     <row r="16" spans="1:56" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="149" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D16" s="150"/>
       <c r="E16" s="150"/>
@@ -43261,7 +43429,7 @@
       <c r="H16" s="150"/>
       <c r="I16" s="151"/>
       <c r="J16" s="152" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K16" s="150"/>
       <c r="L16" s="150"/>
@@ -43305,7 +43473,7 @@
       </c>
       <c r="AQ16" s="160"/>
       <c r="AR16" s="295" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AS16" s="162"/>
       <c r="AT16" s="162"/>
@@ -44073,7 +44241,7 @@
     <row r="29" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D29" s="150"/>
       <c r="E29" s="150"/>
@@ -44085,7 +44253,7 @@
       <c r="K29" s="150"/>
       <c r="L29" s="151"/>
       <c r="M29" s="152" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N29" s="150"/>
       <c r="O29" s="150"/>
@@ -44109,7 +44277,7 @@
       <c r="AC29" s="209"/>
       <c r="AD29" s="210"/>
       <c r="AE29" s="156" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF29" s="157"/>
       <c r="AG29" s="157"/>
@@ -44142,7 +44310,7 @@
     <row r="30" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="149" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D30" s="150"/>
       <c r="E30" s="150"/>
@@ -44154,7 +44322,7 @@
       <c r="K30" s="150"/>
       <c r="L30" s="151"/>
       <c r="M30" s="152" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N30" s="150"/>
       <c r="O30" s="150"/>
@@ -44178,7 +44346,7 @@
       <c r="AC30" s="209"/>
       <c r="AD30" s="210"/>
       <c r="AE30" s="156" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF30" s="157"/>
       <c r="AG30" s="157"/>
@@ -44211,7 +44379,7 @@
     <row r="31" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="149" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D31" s="150"/>
       <c r="E31" s="150"/>
@@ -44223,7 +44391,7 @@
       <c r="K31" s="150"/>
       <c r="L31" s="151"/>
       <c r="M31" s="152" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N31" s="150"/>
       <c r="O31" s="150"/>
@@ -44247,7 +44415,7 @@
       <c r="AC31" s="209"/>
       <c r="AD31" s="210"/>
       <c r="AE31" s="156" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AF31" s="157"/>
       <c r="AG31" s="157"/>
@@ -44280,7 +44448,7 @@
     <row r="32" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="149" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
@@ -44292,7 +44460,7 @@
       <c r="K32" s="150"/>
       <c r="L32" s="151"/>
       <c r="M32" s="152" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N32" s="150"/>
       <c r="O32" s="150"/>
@@ -44304,19 +44472,19 @@
       <c r="U32" s="150"/>
       <c r="V32" s="151"/>
       <c r="W32" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X32" s="150"/>
       <c r="Y32" s="150"/>
       <c r="Z32" s="151"/>
       <c r="AA32" s="208" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AB32" s="209"/>
       <c r="AC32" s="209"/>
       <c r="AD32" s="210"/>
       <c r="AE32" s="156" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF32" s="157"/>
       <c r="AG32" s="157"/>
@@ -44349,7 +44517,7 @@
     <row r="33" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="149" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D33" s="150"/>
       <c r="E33" s="150"/>
@@ -44361,7 +44529,7 @@
       <c r="K33" s="150"/>
       <c r="L33" s="151"/>
       <c r="M33" s="152" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N33" s="150"/>
       <c r="O33" s="150"/>
@@ -44385,7 +44553,7 @@
       <c r="AC33" s="209"/>
       <c r="AD33" s="210"/>
       <c r="AE33" s="156" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF33" s="157"/>
       <c r="AG33" s="157"/>
@@ -44418,7 +44586,7 @@
     <row r="34" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="149" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D34" s="150"/>
       <c r="E34" s="150"/>
@@ -44430,7 +44598,7 @@
       <c r="K34" s="150"/>
       <c r="L34" s="151"/>
       <c r="M34" s="152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N34" s="150"/>
       <c r="O34" s="150"/>
@@ -44454,7 +44622,7 @@
       <c r="AC34" s="209"/>
       <c r="AD34" s="210"/>
       <c r="AE34" s="156" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AF34" s="157"/>
       <c r="AG34" s="157"/>
@@ -44487,7 +44655,7 @@
     <row r="35" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="149" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D35" s="150"/>
       <c r="E35" s="150"/>
@@ -44499,7 +44667,7 @@
       <c r="K35" s="150"/>
       <c r="L35" s="151"/>
       <c r="M35" s="152" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N35" s="150"/>
       <c r="O35" s="150"/>
@@ -44523,7 +44691,7 @@
       <c r="AC35" s="209"/>
       <c r="AD35" s="210"/>
       <c r="AE35" s="156" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF35" s="157"/>
       <c r="AG35" s="157"/>
@@ -44556,7 +44724,7 @@
     <row r="36" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="149" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D36" s="150"/>
       <c r="E36" s="150"/>
@@ -44568,7 +44736,7 @@
       <c r="K36" s="150"/>
       <c r="L36" s="151"/>
       <c r="M36" s="152" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N36" s="150"/>
       <c r="O36" s="150"/>
@@ -44580,19 +44748,19 @@
       <c r="U36" s="150"/>
       <c r="V36" s="151"/>
       <c r="W36" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X36" s="150"/>
       <c r="Y36" s="150"/>
       <c r="Z36" s="151"/>
       <c r="AA36" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB36" s="209"/>
       <c r="AC36" s="209"/>
       <c r="AD36" s="210"/>
       <c r="AE36" s="156" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF36" s="157"/>
       <c r="AG36" s="157"/>
@@ -44625,7 +44793,7 @@
     <row r="37" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -44637,7 +44805,7 @@
       <c r="K37" s="150"/>
       <c r="L37" s="151"/>
       <c r="M37" s="152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N37" s="150"/>
       <c r="O37" s="150"/>
@@ -44649,19 +44817,19 @@
       <c r="U37" s="150"/>
       <c r="V37" s="151"/>
       <c r="W37" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X37" s="150"/>
       <c r="Y37" s="150"/>
       <c r="Z37" s="151"/>
       <c r="AA37" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB37" s="209"/>
       <c r="AC37" s="209"/>
       <c r="AD37" s="210"/>
       <c r="AE37" s="156" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF37" s="157"/>
       <c r="AG37" s="157"/>
@@ -44694,7 +44862,7 @@
     <row r="38" spans="2:91" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="149" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D38" s="150"/>
       <c r="E38" s="150"/>
@@ -44706,7 +44874,7 @@
       <c r="K38" s="150"/>
       <c r="L38" s="151"/>
       <c r="M38" s="152" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N38" s="150"/>
       <c r="O38" s="150"/>
@@ -44718,19 +44886,19 @@
       <c r="U38" s="150"/>
       <c r="V38" s="151"/>
       <c r="W38" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X38" s="150"/>
       <c r="Y38" s="150"/>
       <c r="Z38" s="151"/>
       <c r="AA38" s="208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB38" s="209"/>
       <c r="AC38" s="209"/>
       <c r="AD38" s="210"/>
       <c r="AE38" s="156" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF38" s="157"/>
       <c r="AG38" s="157"/>
@@ -44747,7 +44915,7 @@
       </c>
       <c r="AQ38" s="160"/>
       <c r="AR38" s="161" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AS38" s="162"/>
       <c r="AT38" s="162"/>
@@ -44879,7 +45047,7 @@
     <row r="41" spans="2:91" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
       <c r="C41" s="214" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D41" s="214"/>
       <c r="E41" s="214"/>
@@ -46439,7 +46607,7 @@
     </row>
     <row r="71" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B71" s="256" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C71" s="257"/>
       <c r="D71" s="257"/>
@@ -46557,7 +46725,7 @@
     </row>
     <row r="75" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B75" s="268" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C75" s="269"/>
       <c r="D75" s="269"/>
@@ -46587,7 +46755,7 @@
     </row>
     <row r="76" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B76" s="256" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C76" s="257"/>
       <c r="D76" s="257"/>
@@ -46735,7 +46903,7 @@
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B81" s="256" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C81" s="257"/>
       <c r="D81" s="257"/>
@@ -46853,7 +47021,7 @@
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="268" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C85" s="269"/>
       <c r="D85" s="269"/>
@@ -47123,7 +47291,7 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B3" s="132" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
@@ -47187,7 +47355,7 @@
     </row>
     <row r="4" spans="1:61" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -47251,7 +47419,7 @@
     </row>
     <row r="6" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="309" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" s="310"/>
       <c r="D6" s="311"/>
@@ -47506,7 +47674,7 @@
     <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="176" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D10" s="176"/>
       <c r="E10" s="176"/>
@@ -47848,7 +48016,7 @@
     <row r="15" spans="1:61" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="149" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D15" s="150"/>
       <c r="E15" s="150"/>
@@ -47924,7 +48092,7 @@
     <row r="16" spans="1:61" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="149" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D16" s="150"/>
       <c r="E16" s="150"/>
@@ -47939,7 +48107,7 @@
       <c r="N16" s="150"/>
       <c r="O16" s="151"/>
       <c r="P16" s="152" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="150"/>
       <c r="R16" s="150"/>
@@ -47957,7 +48125,7 @@
       <c r="AB16" s="150"/>
       <c r="AC16" s="151"/>
       <c r="AD16" s="301" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE16" s="154"/>
       <c r="AF16" s="154"/>
@@ -47981,7 +48149,7 @@
       </c>
       <c r="AU16" s="160"/>
       <c r="AV16" s="161" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AW16" s="162"/>
       <c r="AX16" s="162"/>
@@ -48000,7 +48168,7 @@
     <row r="17" spans="2:61" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="149" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D17" s="150"/>
       <c r="E17" s="150"/>
@@ -48015,7 +48183,7 @@
       <c r="N17" s="150"/>
       <c r="O17" s="151"/>
       <c r="P17" s="152" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="150"/>
       <c r="R17" s="150"/>
@@ -48033,7 +48201,7 @@
       <c r="AB17" s="150"/>
       <c r="AC17" s="151"/>
       <c r="AD17" s="301" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AE17" s="154"/>
       <c r="AF17" s="154"/>
@@ -48760,7 +48928,7 @@
     <row r="28" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="149" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D28" s="150"/>
       <c r="E28" s="150"/>
@@ -48775,7 +48943,7 @@
       <c r="N28" s="150"/>
       <c r="O28" s="151"/>
       <c r="P28" s="152" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q28" s="150"/>
       <c r="R28" s="150"/>
@@ -48793,13 +48961,13 @@
       <c r="AB28" s="150"/>
       <c r="AC28" s="151"/>
       <c r="AD28" s="208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE28" s="209"/>
       <c r="AF28" s="209"/>
       <c r="AG28" s="210"/>
       <c r="AH28" s="156" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AI28" s="157"/>
       <c r="AJ28" s="157"/>
@@ -48817,7 +48985,7 @@
       </c>
       <c r="AU28" s="160"/>
       <c r="AV28" s="161" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AW28" s="162"/>
       <c r="AX28" s="162"/>
@@ -48836,7 +49004,7 @@
     <row r="29" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="315" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D29" s="316"/>
       <c r="E29" s="316"/>
@@ -48869,13 +49037,13 @@
       <c r="AB29" s="316"/>
       <c r="AC29" s="317"/>
       <c r="AD29" s="208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AE29" s="209"/>
       <c r="AF29" s="209"/>
       <c r="AG29" s="210"/>
       <c r="AH29" s="319" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AI29" s="320"/>
       <c r="AJ29" s="320"/>
@@ -48912,7 +49080,7 @@
     <row r="30" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="149" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D30" s="150"/>
       <c r="E30" s="150"/>
@@ -48927,7 +49095,7 @@
       <c r="N30" s="150"/>
       <c r="O30" s="151"/>
       <c r="P30" s="152" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q30" s="150"/>
       <c r="R30" s="150"/>
@@ -48939,19 +49107,19 @@
       <c r="X30" s="150"/>
       <c r="Y30" s="151"/>
       <c r="Z30" s="152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA30" s="150"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="151"/>
       <c r="AD30" s="208" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE30" s="209"/>
       <c r="AF30" s="209"/>
       <c r="AG30" s="210"/>
       <c r="AH30" s="156" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AI30" s="157"/>
       <c r="AJ30" s="157"/>
@@ -48969,7 +49137,7 @@
       </c>
       <c r="AU30" s="160"/>
       <c r="AV30" s="161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AW30" s="162"/>
       <c r="AX30" s="162"/>
@@ -49236,7 +49404,7 @@
     <row r="35" spans="2:96" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
       <c r="C35" s="214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D35" s="214"/>
       <c r="E35" s="214"/>
@@ -50728,7 +50896,7 @@
     </row>
     <row r="64" spans="2:61" x14ac:dyDescent="0.15">
       <c r="B64" s="211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C64" s="211"/>
       <c r="D64" s="211"/>
@@ -52010,7 +52178,7 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B3" s="132" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
@@ -52074,7 +52242,7 @@
     </row>
     <row r="4" spans="1:61" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -52138,12 +52306,12 @@
     </row>
     <row r="6" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="309" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" s="310"/>
       <c r="D6" s="311"/>
       <c r="E6" s="170" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F6" s="171"/>
       <c r="G6" s="171"/>
@@ -52393,7 +52561,7 @@
     <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="176" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D10" s="176"/>
       <c r="E10" s="176"/>
@@ -52735,7 +52903,7 @@
     <row r="15" spans="1:61" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="315" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D15" s="316"/>
       <c r="E15" s="316"/>
@@ -52750,7 +52918,7 @@
       <c r="N15" s="316"/>
       <c r="O15" s="317"/>
       <c r="P15" s="318" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q15" s="316"/>
       <c r="R15" s="316"/>
@@ -52768,13 +52936,13 @@
       <c r="AB15" s="316"/>
       <c r="AC15" s="317"/>
       <c r="AD15" s="327" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AE15" s="328"/>
       <c r="AF15" s="328"/>
       <c r="AG15" s="329"/>
       <c r="AH15" s="319" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AI15" s="320"/>
       <c r="AJ15" s="320"/>
@@ -52809,7 +52977,7 @@
     <row r="16" spans="1:61" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="315" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D16" s="316"/>
       <c r="E16" s="316"/>
@@ -52824,7 +52992,7 @@
       <c r="N16" s="316"/>
       <c r="O16" s="317"/>
       <c r="P16" s="318" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="316"/>
       <c r="R16" s="316"/>
@@ -52842,7 +53010,7 @@
       <c r="AB16" s="316"/>
       <c r="AC16" s="317"/>
       <c r="AD16" s="301" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AE16" s="330"/>
       <c r="AF16" s="330"/>
@@ -53569,7 +53737,7 @@
     <row r="27" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="315" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D27" s="316"/>
       <c r="E27" s="316"/>
@@ -53584,7 +53752,7 @@
       <c r="N27" s="316"/>
       <c r="O27" s="317"/>
       <c r="P27" s="318" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q27" s="316"/>
       <c r="R27" s="316"/>
@@ -53602,13 +53770,13 @@
       <c r="AB27" s="316"/>
       <c r="AC27" s="317"/>
       <c r="AD27" s="208" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AE27" s="209"/>
       <c r="AF27" s="209"/>
       <c r="AG27" s="210"/>
       <c r="AH27" s="319" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AI27" s="320"/>
       <c r="AJ27" s="320"/>
@@ -53643,7 +53811,7 @@
     <row r="28" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="315" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D28" s="316"/>
       <c r="E28" s="316"/>
@@ -53658,7 +53826,7 @@
       <c r="N28" s="316"/>
       <c r="O28" s="317"/>
       <c r="P28" s="318" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="316"/>
       <c r="R28" s="316"/>
@@ -53670,19 +53838,19 @@
       <c r="X28" s="316"/>
       <c r="Y28" s="317"/>
       <c r="Z28" s="318" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA28" s="316"/>
       <c r="AB28" s="316"/>
       <c r="AC28" s="317"/>
       <c r="AD28" s="208" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE28" s="209"/>
       <c r="AF28" s="209"/>
       <c r="AG28" s="210"/>
       <c r="AH28" s="319" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AI28" s="320"/>
       <c r="AJ28" s="320"/>
@@ -53700,7 +53868,7 @@
       </c>
       <c r="AU28" s="323"/>
       <c r="AV28" s="324" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AW28" s="325"/>
       <c r="AX28" s="325"/>
@@ -53967,7 +54135,7 @@
     <row r="33" spans="2:96" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
       <c r="C33" s="214" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D33" s="214"/>
       <c r="E33" s="214"/>
@@ -55459,7 +55627,7 @@
     </row>
     <row r="62" spans="2:61" x14ac:dyDescent="0.15">
       <c r="B62" s="211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C62" s="211"/>
       <c r="D62" s="211"/>
